--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_13_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_13_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1821214.937116142</v>
+        <v>1786114.222333669</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7277781.985959209</v>
+        <v>7277781.985959214</v>
       </c>
     </row>
     <row r="9">
@@ -1372,25 +1372,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
-        <v>7.777275772818473</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.4212699014121</v>
+        <v>129.6395921417464</v>
       </c>
       <c r="H11" t="n">
-        <v>323.4631175740071</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>149.9594725111244</v>
+        <v>149.9594725111243</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>51.80401084706398</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1463,10 +1463,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
-        <v>135.2562224935359</v>
+        <v>135.256222493536</v>
       </c>
       <c r="H12" t="n">
-        <v>103.0550289399524</v>
+        <v>103.0550289399523</v>
       </c>
       <c r="I12" t="n">
         <v>60.09629111755324</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>47.07446202387678</v>
+        <v>47.07446202387676</v>
       </c>
       <c r="S12" t="n">
-        <v>154.7151535625317</v>
+        <v>154.7151535625322</v>
       </c>
       <c r="T12" t="n">
         <v>195.2910331939073</v>
       </c>
       <c r="U12" t="n">
-        <v>224.606717349339</v>
+        <v>224.6067173493381</v>
       </c>
       <c r="V12" t="n">
         <v>231.9087310396551</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.2465721975682</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>27.46647103422701</v>
       </c>
       <c r="S13" t="n">
         <v>211.15137899525</v>
       </c>
       <c r="T13" t="n">
-        <v>194.713043231795</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.0171967511075</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
-        <v>268.3405435384698</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>383.1180357552875</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.4212699014121</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>323.4631175740071</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>51.80401084706396</v>
+        <v>51.80401084706395</v>
       </c>
       <c r="S14" t="n">
-        <v>173.1991729621715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.6899906345822</v>
       </c>
       <c r="U14" t="n">
         <v>251.3630839363509</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>217.1072234251845</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
         <v>370.8615991311694</v>
@@ -1688,7 +1688,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C15" t="n">
-        <v>171.0255839274014</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D15" t="n">
         <v>146.1124235746456</v>
@@ -1703,7 +1703,7 @@
         <v>135.2562224935359</v>
       </c>
       <c r="H15" t="n">
-        <v>103.0550289399524</v>
+        <v>103.0550289399523</v>
       </c>
       <c r="I15" t="n">
         <v>60.09629111755324</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>47.07446202387678</v>
+        <v>47.07446202387676</v>
       </c>
       <c r="S15" t="n">
         <v>154.7151535625317</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>155.9170686959712</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>144.4787771321248</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>119.7718453396297</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.0171967511075</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X16" t="n">
-        <v>105.3931962626409</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>365.2025372781237</v>
       </c>
       <c r="G17" t="n">
         <v>413.4212699014121</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.4631175740071</v>
       </c>
       <c r="I17" t="n">
-        <v>125.8792820253818</v>
+        <v>149.9594725111243</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1928,7 +1928,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746456</v>
+        <v>146.1124235746461</v>
       </c>
       <c r="E18" t="n">
         <v>156.0334337071738</v>
@@ -1940,7 +1940,7 @@
         <v>135.2562224935359</v>
       </c>
       <c r="H18" t="n">
-        <v>103.0550289399524</v>
+        <v>103.0550289399523</v>
       </c>
       <c r="I18" t="n">
         <v>60.09629111755324</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>47.07446202387678</v>
+        <v>47.07446202387676</v>
       </c>
       <c r="S18" t="n">
         <v>154.7151535625317</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>144.4787771321248</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.0171967511075</v>
+        <v>187.0403682229689</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>261.3856450949202</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="20">
@@ -2086,19 +2086,19 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>413.4212699014121</v>
+        <v>320.6251678487556</v>
       </c>
       <c r="H20" t="n">
-        <v>68.78800478576363</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>51.80401084706396</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>173.1991729621715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.6899906345822</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3630839363509</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="21">
@@ -2168,7 +2168,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E21" t="n">
-        <v>156.0334337071738</v>
+        <v>156.0334337071744</v>
       </c>
       <c r="F21" t="n">
         <v>143.5062320835493</v>
@@ -2177,7 +2177,7 @@
         <v>135.2562224935359</v>
       </c>
       <c r="H21" t="n">
-        <v>103.0550289399524</v>
+        <v>103.0550289399523</v>
       </c>
       <c r="I21" t="n">
         <v>60.09629111755324</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>47.07446202387678</v>
+        <v>47.07446202387676</v>
       </c>
       <c r="S21" t="n">
         <v>154.7151535625317</v>
@@ -2228,7 +2228,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
-        <v>203.6711514185862</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="22">
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>144.4787771321248</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>211.15137899525</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.5850308615645</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.0171967511075</v>
       </c>
       <c r="V22" t="n">
-        <v>110.6664319892132</v>
+        <v>119.7718453396296</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2329,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>251.7998608287369</v>
+        <v>413.4212699014121</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>149.9594725111243</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>51.80401084706396</v>
+        <v>51.80401084706395</v>
       </c>
       <c r="S23" t="n">
         <v>173.1991729621715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.6899906345822</v>
       </c>
       <c r="U23" t="n">
         <v>251.3630839363509</v>
       </c>
       <c r="V23" t="n">
-        <v>328.5332215225193</v>
+        <v>30.56273698617472</v>
       </c>
       <c r="W23" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.6870717512358</v>
@@ -2414,7 +2414,7 @@
         <v>135.2562224935359</v>
       </c>
       <c r="H24" t="n">
-        <v>103.0550289399524</v>
+        <v>103.0550289399523</v>
       </c>
       <c r="I24" t="n">
         <v>60.09629111755324</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>47.07446202387678</v>
+        <v>47.07446202387676</v>
       </c>
       <c r="S24" t="n">
         <v>154.7151535625317</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>50.15888596336227</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2520,19 +2520,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>25.91681693562113</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>144.4787771321248</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>211.15137899525</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.0171967511075</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
-        <v>93.85502840400844</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
-        <v>356.6047327545984</v>
+        <v>39.24539786743681</v>
       </c>
       <c r="E26" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.4212699014121</v>
       </c>
       <c r="H26" t="n">
         <v>323.4631175740071</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>51.80401084706396</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>173.1991729621715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.6899906345822</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3630839363509</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>177.2535039713517</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -2651,7 +2651,7 @@
         <v>135.2562224935359</v>
       </c>
       <c r="H27" t="n">
-        <v>103.0550289399524</v>
+        <v>103.0550289399523</v>
       </c>
       <c r="I27" t="n">
         <v>60.09629111755324</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>47.07446202387678</v>
+        <v>47.07446202387676</v>
       </c>
       <c r="S27" t="n">
         <v>154.7151535625317</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>155.9170686959712</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2757,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>25.91681693562113</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>127.0112542244848</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0171967511075</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.9363510669392</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>136.8691778054378</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,13 +2794,13 @@
         <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>188.0400044651199</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>11.23159642007029</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>51.80401084706396</v>
+        <v>51.80401084706395</v>
       </c>
       <c r="S29" t="n">
         <v>173.1991729621715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.6899906345822</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3630839363509</v>
@@ -2888,7 +2888,7 @@
         <v>135.2562224935359</v>
       </c>
       <c r="H30" t="n">
-        <v>103.0550289399524</v>
+        <v>103.0550289399523</v>
       </c>
       <c r="I30" t="n">
         <v>60.09629111755324</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>47.07446202387678</v>
+        <v>47.07446202387676</v>
       </c>
       <c r="S30" t="n">
         <v>154.7151535625317</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>144.4787771321248</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>261.3856450949202</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>119.7718453396297</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
         <v>383.1180357552875</v>
@@ -3046,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.4631175740071</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>69.72571778985545</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>51.80401084706396</v>
+        <v>51.80401084706395</v>
       </c>
       <c r="S32" t="n">
-        <v>173.1991729621715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>216.6899906345822</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>118.4431323518789</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>135.2562224935359</v>
       </c>
       <c r="H33" t="n">
-        <v>103.0550289399524</v>
+        <v>103.0550289399523</v>
       </c>
       <c r="I33" t="n">
         <v>60.09629111755324</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>47.07446202387678</v>
+        <v>47.07446202387676</v>
       </c>
       <c r="S33" t="n">
         <v>154.7151535625317</v>
@@ -3231,31 +3231,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>25.91681693562113</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>180.2793913654806</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.5850308615645</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.0171967511075</v>
       </c>
       <c r="V34" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>126.9358740881767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,22 +3271,22 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>266.5485688060765</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>261.5739423634805</v>
       </c>
       <c r="G35" t="n">
         <v>413.4212699014121</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.4631175740071</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>149.9594725111243</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>51.80401084706396</v>
+        <v>51.80401084706395</v>
       </c>
       <c r="S35" t="n">
         <v>173.1991729621715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.6899906345822</v>
       </c>
       <c r="U35" t="n">
         <v>251.3630839363509</v>
       </c>
       <c r="V35" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>135.2562224935359</v>
       </c>
       <c r="H36" t="n">
-        <v>103.0550289399524</v>
+        <v>103.0550289399523</v>
       </c>
       <c r="I36" t="n">
         <v>60.09629111755324</v>
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>47.07446202387678</v>
+        <v>47.07446202387676</v>
       </c>
       <c r="S36" t="n">
         <v>154.7151535625317</v>
       </c>
       <c r="T36" t="n">
-        <v>195.2910331939073</v>
+        <v>195.2910331939075</v>
       </c>
       <c r="U36" t="n">
         <v>224.606717349339</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>155.9170686959712</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>25.91681693562113</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.5850308615645</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0171967511075</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y37" t="n">
-        <v>154.3625744298595</v>
+        <v>16.6905447668685</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>356.6047327545984</v>
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.4212699014121</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.4631175740071</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>149.9594725111243</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>51.80401084706396</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>108.1998420487903</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3630839363509</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>350.5301170005546</v>
+        <v>207.4618927855884</v>
       </c>
       <c r="X38" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>135.2562224935359</v>
       </c>
       <c r="H39" t="n">
-        <v>103.0550289399524</v>
+        <v>103.0550289399523</v>
       </c>
       <c r="I39" t="n">
         <v>60.09629111755324</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>47.07446202387678</v>
+        <v>47.07446202387676</v>
       </c>
       <c r="S39" t="n">
         <v>154.7151535625317</v>
@@ -3638,7 +3638,7 @@
         <v>195.2910331939073</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6067173493393</v>
+        <v>224.606717349339</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>25.91681693562113</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>144.4787771321248</v>
@@ -3717,13 +3717,13 @@
         <v>225.5850308615645</v>
       </c>
       <c r="U40" t="n">
-        <v>84.74961505359208</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>110.6664319892133</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>205.9437782138851</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>112.3099828906992</v>
       </c>
       <c r="F41" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>413.4212699014121</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>51.80401084706395</v>
       </c>
       <c r="S41" t="n">
         <v>173.1991729621715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.6899906345822</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.3630839363509</v>
       </c>
       <c r="V41" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3821,7 +3821,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C42" t="n">
-        <v>171.025583927401</v>
+        <v>171.0255839274014</v>
       </c>
       <c r="D42" t="n">
         <v>146.1124235746456</v>
@@ -3836,7 +3836,7 @@
         <v>135.2562224935359</v>
       </c>
       <c r="H42" t="n">
-        <v>103.0550289399524</v>
+        <v>103.0550289399523</v>
       </c>
       <c r="I42" t="n">
         <v>60.09629111755324</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>47.07446202387574</v>
+        <v>47.07446202387676</v>
       </c>
       <c r="S42" t="n">
         <v>154.7151535625317</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>94.80711221778587</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>134.4212799679311</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3942,25 +3942,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>25.91681693562113</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>211.15137899525</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.5850308615645</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.0171967511075</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>259.7054008172406</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3985,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>59.55012618735658</v>
       </c>
       <c r="F44" t="n">
-        <v>257.0290051016458</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.4212699014121</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>149.9594725111243</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>51.80401084706396</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>173.1991729621715</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.6870717512358</v>
@@ -4073,7 +4073,7 @@
         <v>135.2562224935359</v>
       </c>
       <c r="H45" t="n">
-        <v>103.0550289399524</v>
+        <v>103.0550289399523</v>
       </c>
       <c r="I45" t="n">
         <v>60.09629111755324</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>47.07446202387678</v>
+        <v>47.07446202387676</v>
       </c>
       <c r="S45" t="n">
-        <v>154.7151535625317</v>
+        <v>154.7151535625322</v>
       </c>
       <c r="T45" t="n">
         <v>195.2910331939073</v>
       </c>
       <c r="U45" t="n">
-        <v>224.606717349339</v>
+        <v>224.6067173493386</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -4121,7 +4121,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
-        <v>204.4616296084775</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
         <v>203.671151418586</v>
@@ -4140,22 +4140,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>109.8088514030186</v>
       </c>
       <c r="H46" t="n">
-        <v>18.50679119217522</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>134.4212799679311</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0171967511075</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1368.501556981154</v>
+        <v>1066.758015411971</v>
       </c>
       <c r="C11" t="n">
-        <v>1368.501556981154</v>
+        <v>696.0659995746552</v>
       </c>
       <c r="D11" t="n">
-        <v>1368.501556981154</v>
+        <v>335.8591988124346</v>
       </c>
       <c r="E11" t="n">
-        <v>1360.645722867196</v>
+        <v>335.8591988124346</v>
       </c>
       <c r="F11" t="n">
-        <v>949.2377799575587</v>
+        <v>335.8591988124346</v>
       </c>
       <c r="G11" t="n">
-        <v>531.6405376329</v>
+        <v>204.9101158409735</v>
       </c>
       <c r="H11" t="n">
         <v>204.9101158409735</v>
       </c>
       <c r="I11" t="n">
-        <v>53.43590118327213</v>
+        <v>53.43590118327212</v>
       </c>
       <c r="J11" t="n">
-        <v>173.2326943294863</v>
+        <v>93.26625307191534</v>
       </c>
       <c r="K11" t="n">
-        <v>475.0536258722338</v>
+        <v>395.0871846146628</v>
       </c>
       <c r="L11" t="n">
-        <v>901.458258406568</v>
+        <v>821.491817148997</v>
       </c>
       <c r="M11" t="n">
-        <v>1311.161424078292</v>
+        <v>1311.161424078291</v>
       </c>
       <c r="N11" t="n">
-        <v>1793.237222189246</v>
+        <v>1793.237222189245</v>
       </c>
       <c r="O11" t="n">
         <v>2202.319376922414</v>
@@ -5065,28 +5065,28 @@
         <v>2671.795059163606</v>
       </c>
       <c r="R11" t="n">
-        <v>2619.467775479704</v>
+        <v>2671.795059163606</v>
       </c>
       <c r="S11" t="n">
-        <v>2619.467775479704</v>
+        <v>2671.795059163606</v>
       </c>
       <c r="T11" t="n">
-        <v>2400.588997060934</v>
+        <v>2452.916280744836</v>
       </c>
       <c r="U11" t="n">
-        <v>2146.686892074721</v>
+        <v>2199.014175758623</v>
       </c>
       <c r="V11" t="n">
-        <v>2146.686892074721</v>
+        <v>2199.014175758623</v>
       </c>
       <c r="W11" t="n">
-        <v>2146.686892074721</v>
+        <v>1844.943350505538</v>
       </c>
       <c r="X11" t="n">
-        <v>2146.686892074721</v>
+        <v>1844.943350505538</v>
       </c>
       <c r="Y11" t="n">
-        <v>1756.093890305795</v>
+        <v>1454.350348736612</v>
       </c>
     </row>
     <row r="12">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>977.764402035607</v>
+        <v>977.7644020356067</v>
       </c>
       <c r="C12" t="n">
         <v>805.011286957424</v>
@@ -5105,52 +5105,52 @@
         <v>657.4229803163678</v>
       </c>
       <c r="E12" t="n">
-        <v>499.8134513192224</v>
+        <v>499.8134513192225</v>
       </c>
       <c r="F12" t="n">
-        <v>354.8576613358395</v>
+        <v>354.8576613358393</v>
       </c>
       <c r="G12" t="n">
-        <v>218.2352143726716</v>
+        <v>218.2352143726717</v>
       </c>
       <c r="H12" t="n">
-        <v>114.1392255444371</v>
+        <v>114.139225544437</v>
       </c>
       <c r="I12" t="n">
-        <v>53.43590118327213</v>
+        <v>53.43590118327212</v>
       </c>
       <c r="J12" t="n">
-        <v>132.5680956728457</v>
+        <v>53.43590118327212</v>
       </c>
       <c r="K12" t="n">
-        <v>394.4232332783062</v>
+        <v>315.2910387887326</v>
       </c>
       <c r="L12" t="n">
-        <v>807.3693876831368</v>
+        <v>728.2371931935634</v>
       </c>
       <c r="M12" t="n">
-        <v>1137.343880642911</v>
+        <v>1262.926072046934</v>
       </c>
       <c r="N12" t="n">
-        <v>1701.583115106548</v>
+        <v>1827.165306510572</v>
       </c>
       <c r="O12" t="n">
-        <v>2150.12376286557</v>
+        <v>2275.705954269594</v>
       </c>
       <c r="P12" t="n">
-        <v>2493.690635655527</v>
+        <v>2619.272827059551</v>
       </c>
       <c r="Q12" t="n">
         <v>2671.795059163606</v>
       </c>
       <c r="R12" t="n">
-        <v>2624.245097523327</v>
+        <v>2624.245097523326</v>
       </c>
       <c r="S12" t="n">
-        <v>2467.967164631881</v>
+        <v>2467.96716463188</v>
       </c>
       <c r="T12" t="n">
-        <v>2270.703494739045</v>
+        <v>2270.703494739044</v>
       </c>
       <c r="U12" t="n">
         <v>2043.828022669005</v>
@@ -5159,7 +5159,7 @@
         <v>1809.576779194606</v>
       </c>
       <c r="W12" t="n">
-        <v>1557.062287527939</v>
+        <v>1557.06228752794</v>
       </c>
       <c r="X12" t="n">
         <v>1350.535388933517</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.43590118327213</v>
+        <v>222.3718326959672</v>
       </c>
       <c r="C13" t="n">
-        <v>53.43590118327213</v>
+        <v>222.3718326959672</v>
       </c>
       <c r="D13" t="n">
-        <v>53.43590118327213</v>
+        <v>222.3718326959672</v>
       </c>
       <c r="E13" t="n">
-        <v>53.43590118327213</v>
+        <v>222.3718326959672</v>
       </c>
       <c r="F13" t="n">
-        <v>53.43590118327213</v>
+        <v>222.3718326959672</v>
       </c>
       <c r="G13" t="n">
-        <v>53.43590118327213</v>
+        <v>53.43590118327212</v>
       </c>
       <c r="H13" t="n">
-        <v>53.43590118327213</v>
+        <v>53.43590118327212</v>
       </c>
       <c r="I13" t="n">
-        <v>53.43590118327213</v>
+        <v>53.43590118327212</v>
       </c>
       <c r="J13" t="n">
-        <v>53.43590118327213</v>
+        <v>53.43590118327212</v>
       </c>
       <c r="K13" t="n">
         <v>112.7690201393558</v>
       </c>
       <c r="L13" t="n">
-        <v>244.498599861692</v>
+        <v>244.4985998616921</v>
       </c>
       <c r="M13" t="n">
-        <v>393.9818714513002</v>
+        <v>393.9818714513003</v>
       </c>
       <c r="N13" t="n">
-        <v>545.0520268488883</v>
+        <v>545.0520268488884</v>
       </c>
       <c r="O13" t="n">
-        <v>669.2531702163324</v>
+        <v>669.2531702163325</v>
       </c>
       <c r="P13" t="n">
-        <v>752.3062233834262</v>
+        <v>752.3062233834263</v>
       </c>
       <c r="Q13" t="n">
-        <v>752.3062233834262</v>
+        <v>752.3062233834263</v>
       </c>
       <c r="R13" t="n">
-        <v>752.3062233834262</v>
+        <v>724.5623132478435</v>
       </c>
       <c r="S13" t="n">
-        <v>539.0220021761029</v>
+        <v>511.2780920405202</v>
       </c>
       <c r="T13" t="n">
-        <v>342.3421605278251</v>
+        <v>511.2780920405202</v>
       </c>
       <c r="U13" t="n">
-        <v>53.43590118327213</v>
+        <v>222.3718326959672</v>
       </c>
       <c r="V13" t="n">
-        <v>53.43590118327213</v>
+        <v>222.3718326959672</v>
       </c>
       <c r="W13" t="n">
-        <v>53.43590118327213</v>
+        <v>222.3718326959672</v>
       </c>
       <c r="X13" t="n">
-        <v>53.43590118327213</v>
+        <v>222.3718326959672</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.43590118327213</v>
+        <v>222.3718326959672</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1816.009335045671</v>
+        <v>811.1158319249187</v>
       </c>
       <c r="C14" t="n">
-        <v>1544.958280966409</v>
+        <v>440.4238160876029</v>
       </c>
       <c r="D14" t="n">
-        <v>1184.751480204188</v>
+        <v>440.4238160876029</v>
       </c>
       <c r="E14" t="n">
-        <v>797.7635652998572</v>
+        <v>53.43590118327212</v>
       </c>
       <c r="F14" t="n">
-        <v>797.7635652998572</v>
+        <v>53.43590118327212</v>
       </c>
       <c r="G14" t="n">
-        <v>380.1663229751985</v>
+        <v>53.43590118327212</v>
       </c>
       <c r="H14" t="n">
-        <v>53.43590118327213</v>
+        <v>53.43590118327212</v>
       </c>
       <c r="I14" t="n">
-        <v>53.43590118327213</v>
+        <v>53.43590118327212</v>
       </c>
       <c r="J14" t="n">
         <v>173.2326943294863</v>
@@ -5284,13 +5284,13 @@
         <v>475.0536258722339</v>
       </c>
       <c r="L14" t="n">
-        <v>821.4918171489978</v>
+        <v>901.4582584065681</v>
       </c>
       <c r="M14" t="n">
-        <v>1311.161424078292</v>
+        <v>1391.127865335863</v>
       </c>
       <c r="N14" t="n">
-        <v>1793.237222189246</v>
+        <v>1873.203663446816</v>
       </c>
       <c r="O14" t="n">
         <v>2202.319376922414</v>
@@ -5302,28 +5302,28 @@
         <v>2671.795059163606</v>
       </c>
       <c r="R14" t="n">
-        <v>2619.467775479704</v>
+        <v>2619.467775479703</v>
       </c>
       <c r="S14" t="n">
-        <v>2444.519115921954</v>
+        <v>2619.467775479703</v>
       </c>
       <c r="T14" t="n">
-        <v>2444.519115921954</v>
+        <v>2400.588997060933</v>
       </c>
       <c r="U14" t="n">
-        <v>2190.617010935741</v>
+        <v>2146.68689207472</v>
       </c>
       <c r="V14" t="n">
-        <v>2190.617010935741</v>
+        <v>1927.386666392716</v>
       </c>
       <c r="W14" t="n">
-        <v>2190.617010935741</v>
+        <v>1573.31584113963</v>
       </c>
       <c r="X14" t="n">
-        <v>1816.009335045671</v>
+        <v>1198.70816524956</v>
       </c>
       <c r="Y14" t="n">
-        <v>1816.009335045671</v>
+        <v>1198.70816524956</v>
       </c>
     </row>
     <row r="15">
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>977.7644020356071</v>
+        <v>977.764402035607</v>
       </c>
       <c r="C15" t="n">
-        <v>805.0112869574239</v>
+        <v>805.011286957424</v>
       </c>
       <c r="D15" t="n">
-        <v>657.4229803163677</v>
+        <v>657.4229803163678</v>
       </c>
       <c r="E15" t="n">
         <v>499.8134513192224</v>
@@ -5354,7 +5354,7 @@
         <v>114.139225544437</v>
       </c>
       <c r="I15" t="n">
-        <v>53.43590118327213</v>
+        <v>53.43590118327212</v>
       </c>
       <c r="J15" t="n">
         <v>132.5680956728457</v>
@@ -5381,10 +5381,10 @@
         <v>2671.795059163606</v>
       </c>
       <c r="R15" t="n">
-        <v>2624.245097523327</v>
+        <v>2624.245097523326</v>
       </c>
       <c r="S15" t="n">
-        <v>2467.967164631881</v>
+        <v>2467.96716463188</v>
       </c>
       <c r="T15" t="n">
         <v>2270.703494739045</v>
@@ -5402,7 +5402,7 @@
         <v>1350.535388933517</v>
       </c>
       <c r="Y15" t="n">
-        <v>1144.806953157168</v>
+        <v>1144.806953157167</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>210.9278897650613</v>
+        <v>53.43590118327212</v>
       </c>
       <c r="C16" t="n">
-        <v>210.9278897650613</v>
+        <v>53.43590118327212</v>
       </c>
       <c r="D16" t="n">
-        <v>210.9278897650613</v>
+        <v>53.43590118327212</v>
       </c>
       <c r="E16" t="n">
-        <v>210.9278897650613</v>
+        <v>53.43590118327212</v>
       </c>
       <c r="F16" t="n">
-        <v>210.9278897650613</v>
+        <v>53.43590118327212</v>
       </c>
       <c r="G16" t="n">
-        <v>210.9278897650613</v>
+        <v>53.43590118327212</v>
       </c>
       <c r="H16" t="n">
-        <v>53.43590118327213</v>
+        <v>53.43590118327212</v>
       </c>
       <c r="I16" t="n">
-        <v>53.43590118327213</v>
+        <v>53.43590118327212</v>
       </c>
       <c r="J16" t="n">
-        <v>53.43590118327213</v>
+        <v>53.43590118327212</v>
       </c>
       <c r="K16" t="n">
         <v>112.7690201393558</v>
@@ -5445,43 +5445,43 @@
         <v>244.4985998616921</v>
       </c>
       <c r="M16" t="n">
-        <v>393.9818714513002</v>
+        <v>393.9818714513003</v>
       </c>
       <c r="N16" t="n">
-        <v>545.0520268488883</v>
+        <v>545.0520268488884</v>
       </c>
       <c r="O16" t="n">
-        <v>669.2531702163324</v>
+        <v>669.2531702163325</v>
       </c>
       <c r="P16" t="n">
-        <v>752.3062233834262</v>
+        <v>752.3062233834263</v>
       </c>
       <c r="Q16" t="n">
-        <v>752.3062233834262</v>
+        <v>752.3062233834263</v>
       </c>
       <c r="R16" t="n">
-        <v>606.3680646641081</v>
+        <v>752.3062233834263</v>
       </c>
       <c r="S16" t="n">
-        <v>606.3680646641081</v>
+        <v>631.3245614242044</v>
       </c>
       <c r="T16" t="n">
-        <v>606.3680646641081</v>
+        <v>631.3245614242044</v>
       </c>
       <c r="U16" t="n">
-        <v>606.3680646641081</v>
+        <v>342.4183020796514</v>
       </c>
       <c r="V16" t="n">
-        <v>606.3680646641081</v>
+        <v>342.4183020796514</v>
       </c>
       <c r="W16" t="n">
-        <v>317.3856637677288</v>
+        <v>53.43590118327212</v>
       </c>
       <c r="X16" t="n">
-        <v>210.9278897650613</v>
+        <v>53.43590118327212</v>
       </c>
       <c r="Y16" t="n">
-        <v>210.9278897650613</v>
+        <v>53.43590118327212</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1355.863864174205</v>
+        <v>2065.323947420195</v>
       </c>
       <c r="C17" t="n">
-        <v>985.1718483368896</v>
+        <v>2065.323947420195</v>
       </c>
       <c r="D17" t="n">
-        <v>985.1718483368896</v>
+        <v>1705.117146657974</v>
       </c>
       <c r="E17" t="n">
-        <v>598.1839334325589</v>
+        <v>1318.129231753643</v>
       </c>
       <c r="F17" t="n">
-        <v>598.1839334325589</v>
+        <v>949.2377799575586</v>
       </c>
       <c r="G17" t="n">
-        <v>180.5866911079002</v>
+        <v>531.6405376328998</v>
       </c>
       <c r="H17" t="n">
-        <v>180.5866911079002</v>
+        <v>204.9101158409735</v>
       </c>
       <c r="I17" t="n">
         <v>53.43590118327212</v>
@@ -5518,13 +5518,13 @@
         <v>173.2326943294863</v>
       </c>
       <c r="K17" t="n">
-        <v>475.0536258722338</v>
+        <v>475.0536258722339</v>
       </c>
       <c r="L17" t="n">
-        <v>821.4918171489974</v>
+        <v>901.4582584065681</v>
       </c>
       <c r="M17" t="n">
-        <v>1311.161424078292</v>
+        <v>1311.161424078291</v>
       </c>
       <c r="N17" t="n">
         <v>1793.237222189245</v>
@@ -5551,16 +5551,16 @@
         <v>2452.916280744836</v>
       </c>
       <c r="V17" t="n">
-        <v>2121.064541833201</v>
+        <v>2452.916280744836</v>
       </c>
       <c r="W17" t="n">
-        <v>2121.064541833201</v>
+        <v>2452.916280744836</v>
       </c>
       <c r="X17" t="n">
-        <v>1746.45686594313</v>
+        <v>2452.916280744836</v>
       </c>
       <c r="Y17" t="n">
-        <v>1355.863864174205</v>
+        <v>2452.916280744836</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>977.764402035607</v>
+        <v>977.7644020356071</v>
       </c>
       <c r="C18" t="n">
-        <v>805.011286957424</v>
+        <v>805.0112869574243</v>
       </c>
       <c r="D18" t="n">
-        <v>657.4229803163678</v>
+        <v>657.4229803163677</v>
       </c>
       <c r="E18" t="n">
         <v>499.8134513192224</v>
       </c>
       <c r="F18" t="n">
-        <v>354.8576613358395</v>
+        <v>354.8576613358392</v>
       </c>
       <c r="G18" t="n">
-        <v>218.2352143726716</v>
+        <v>218.2352143726717</v>
       </c>
       <c r="H18" t="n">
         <v>114.139225544437</v>
@@ -5639,7 +5639,7 @@
         <v>1350.535388933517</v>
       </c>
       <c r="Y18" t="n">
-        <v>1144.806953157167</v>
+        <v>1144.806953157168</v>
       </c>
     </row>
     <row r="19">
@@ -5682,40 +5682,40 @@
         <v>244.4985998616921</v>
       </c>
       <c r="M19" t="n">
-        <v>393.9818714513002</v>
+        <v>393.9818714513003</v>
       </c>
       <c r="N19" t="n">
-        <v>545.0520268488883</v>
+        <v>545.0520268488884</v>
       </c>
       <c r="O19" t="n">
-        <v>669.2531702163324</v>
+        <v>669.2531702163325</v>
       </c>
       <c r="P19" t="n">
-        <v>752.3062233834262</v>
+        <v>752.3062233834263</v>
       </c>
       <c r="Q19" t="n">
-        <v>752.3062233834262</v>
+        <v>752.3062233834263</v>
       </c>
       <c r="R19" t="n">
-        <v>606.3680646641081</v>
+        <v>752.3062233834263</v>
       </c>
       <c r="S19" t="n">
-        <v>606.3680646641081</v>
+        <v>752.3062233834263</v>
       </c>
       <c r="T19" t="n">
-        <v>606.3680646641081</v>
+        <v>752.3062233834263</v>
       </c>
       <c r="U19" t="n">
-        <v>317.4618053195551</v>
+        <v>563.3765585117405</v>
       </c>
       <c r="V19" t="n">
-        <v>317.4618053195551</v>
+        <v>563.3765585117405</v>
       </c>
       <c r="W19" t="n">
-        <v>53.43590118327212</v>
+        <v>274.3941576153612</v>
       </c>
       <c r="X19" t="n">
-        <v>53.43590118327212</v>
+        <v>274.3941576153612</v>
       </c>
       <c r="Y19" t="n">
         <v>53.43590118327212</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>911.2079924621796</v>
+        <v>1906.594381504611</v>
       </c>
       <c r="C20" t="n">
-        <v>540.5159766248638</v>
+        <v>1535.902365667295</v>
       </c>
       <c r="D20" t="n">
-        <v>540.5159766248638</v>
+        <v>1175.695564905074</v>
       </c>
       <c r="E20" t="n">
-        <v>540.5159766248638</v>
+        <v>788.7076500007433</v>
       </c>
       <c r="F20" t="n">
-        <v>540.5159766248638</v>
+        <v>377.2997070911061</v>
       </c>
       <c r="G20" t="n">
-        <v>122.9187343002051</v>
+        <v>53.43590118327212</v>
       </c>
       <c r="H20" t="n">
         <v>53.43590118327212</v>
@@ -5752,16 +5752,16 @@
         <v>53.43590118327212</v>
       </c>
       <c r="J20" t="n">
-        <v>173.2326943294863</v>
+        <v>93.26625307191534</v>
       </c>
       <c r="K20" t="n">
-        <v>475.0536258722338</v>
+        <v>395.0871846146628</v>
       </c>
       <c r="L20" t="n">
-        <v>901.458258406568</v>
+        <v>821.491817148997</v>
       </c>
       <c r="M20" t="n">
-        <v>1391.127865335862</v>
+        <v>1311.161424078291</v>
       </c>
       <c r="N20" t="n">
         <v>1793.237222189245</v>
@@ -5776,28 +5776,28 @@
         <v>2671.795059163606</v>
       </c>
       <c r="R20" t="n">
-        <v>2619.467775479703</v>
+        <v>2671.795059163606</v>
       </c>
       <c r="S20" t="n">
-        <v>2444.519115921954</v>
+        <v>2671.795059163606</v>
       </c>
       <c r="T20" t="n">
-        <v>2225.640337503184</v>
+        <v>2671.795059163606</v>
       </c>
       <c r="U20" t="n">
-        <v>1971.738232516971</v>
+        <v>2671.795059163606</v>
       </c>
       <c r="V20" t="n">
-        <v>1639.886493605335</v>
+        <v>2671.795059163606</v>
       </c>
       <c r="W20" t="n">
-        <v>1285.81566835225</v>
+        <v>2671.795059163606</v>
       </c>
       <c r="X20" t="n">
-        <v>911.2079924621796</v>
+        <v>2297.187383273536</v>
       </c>
       <c r="Y20" t="n">
-        <v>911.2079924621796</v>
+        <v>1906.594381504611</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>977.7644020356067</v>
+        <v>977.7644020356071</v>
       </c>
       <c r="C21" t="n">
-        <v>805.0112869574239</v>
+        <v>805.0112869574243</v>
       </c>
       <c r="D21" t="n">
-        <v>657.4229803163677</v>
+        <v>657.4229803163682</v>
       </c>
       <c r="E21" t="n">
         <v>499.8134513192224</v>
       </c>
       <c r="F21" t="n">
-        <v>354.8576613358393</v>
+        <v>354.8576613358392</v>
       </c>
       <c r="G21" t="n">
         <v>218.2352143726717</v>
@@ -5840,10 +5840,10 @@
         <v>807.3693876831369</v>
       </c>
       <c r="M21" t="n">
-        <v>1342.058266536508</v>
+        <v>1137.343880642911</v>
       </c>
       <c r="N21" t="n">
-        <v>1906.297501000145</v>
+        <v>1701.583115106548</v>
       </c>
       <c r="O21" t="n">
         <v>2150.12376286557</v>
@@ -5876,7 +5876,7 @@
         <v>1350.535388933517</v>
       </c>
       <c r="Y21" t="n">
-        <v>1144.806953157167</v>
+        <v>1144.806953157168</v>
       </c>
     </row>
     <row r="22">
@@ -5919,34 +5919,34 @@
         <v>244.4985998616921</v>
       </c>
       <c r="M22" t="n">
-        <v>393.9818714513002</v>
+        <v>393.9818714513003</v>
       </c>
       <c r="N22" t="n">
-        <v>545.0520268488883</v>
+        <v>545.0520268488884</v>
       </c>
       <c r="O22" t="n">
-        <v>669.2531702163324</v>
+        <v>669.2531702163325</v>
       </c>
       <c r="P22" t="n">
-        <v>752.3062233834262</v>
+        <v>752.3062233834263</v>
       </c>
       <c r="Q22" t="n">
-        <v>752.3062233834262</v>
+        <v>752.3062233834263</v>
       </c>
       <c r="R22" t="n">
-        <v>606.3680646641081</v>
+        <v>752.3062233834263</v>
       </c>
       <c r="S22" t="n">
-        <v>393.0838434567849</v>
+        <v>752.3062233834263</v>
       </c>
       <c r="T22" t="n">
-        <v>165.2201759198511</v>
+        <v>752.3062233834263</v>
       </c>
       <c r="U22" t="n">
-        <v>165.2201759198511</v>
+        <v>463.3999640388733</v>
       </c>
       <c r="V22" t="n">
-        <v>53.43590118327212</v>
+        <v>342.4183020796514</v>
       </c>
       <c r="W22" t="n">
         <v>53.43590118327212</v>
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>821.092178558525</v>
+        <v>1244.279855368719</v>
       </c>
       <c r="C23" t="n">
-        <v>821.092178558525</v>
+        <v>1244.279855368719</v>
       </c>
       <c r="D23" t="n">
-        <v>460.8853777963044</v>
+        <v>884.0730546064981</v>
       </c>
       <c r="E23" t="n">
-        <v>460.8853777963044</v>
+        <v>884.0730546064981</v>
       </c>
       <c r="F23" t="n">
-        <v>460.8853777963044</v>
+        <v>472.6651116968609</v>
       </c>
       <c r="G23" t="n">
-        <v>206.5420840299035</v>
+        <v>55.06786937220213</v>
       </c>
       <c r="H23" t="n">
-        <v>206.5420840299035</v>
+        <v>55.06786937220213</v>
       </c>
       <c r="I23" t="n">
         <v>55.06786937220213</v>
       </c>
       <c r="J23" t="n">
-        <v>174.8646625184163</v>
+        <v>174.864662518416</v>
       </c>
       <c r="K23" t="n">
-        <v>476.6855940611638</v>
+        <v>476.6855940611633</v>
       </c>
       <c r="L23" t="n">
-        <v>903.0902265954981</v>
+        <v>903.0902265954977</v>
       </c>
       <c r="M23" t="n">
         <v>1392.759833524792</v>
@@ -6019,22 +6019,22 @@
         <v>2526.117525368455</v>
       </c>
       <c r="T23" t="n">
-        <v>2526.117525368455</v>
+        <v>2307.238746949685</v>
       </c>
       <c r="U23" t="n">
-        <v>2272.215420382242</v>
+        <v>2053.336641963472</v>
       </c>
       <c r="V23" t="n">
-        <v>1940.363681470606</v>
+        <v>2022.465190462285</v>
       </c>
       <c r="W23" t="n">
-        <v>1586.29285621752</v>
+        <v>2022.465190462285</v>
       </c>
       <c r="X23" t="n">
-        <v>1211.68518032745</v>
+        <v>2022.465190462285</v>
       </c>
       <c r="Y23" t="n">
-        <v>821.092178558525</v>
+        <v>1631.87218869336</v>
       </c>
     </row>
     <row r="24">
@@ -6068,22 +6068,22 @@
         <v>55.06786937220213</v>
       </c>
       <c r="J24" t="n">
-        <v>134.2000638617757</v>
+        <v>55.06786937220213</v>
       </c>
       <c r="K24" t="n">
-        <v>396.0552014672361</v>
+        <v>191.3408155736389</v>
       </c>
       <c r="L24" t="n">
-        <v>809.0013558720668</v>
+        <v>604.2869699784696</v>
       </c>
       <c r="M24" t="n">
-        <v>1343.690234725438</v>
+        <v>1138.975848831841</v>
       </c>
       <c r="N24" t="n">
-        <v>1907.929469189075</v>
+        <v>1703.215083295478</v>
       </c>
       <c r="O24" t="n">
-        <v>2356.470116948097</v>
+        <v>2151.7557310545</v>
       </c>
       <c r="P24" t="n">
         <v>2495.322603844457</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>55.06786937220213</v>
+        <v>105.7334107493357</v>
       </c>
       <c r="C25" t="n">
-        <v>55.06786937220213</v>
+        <v>105.7334107493357</v>
       </c>
       <c r="D25" t="n">
-        <v>55.06786937220213</v>
+        <v>105.7334107493357</v>
       </c>
       <c r="E25" t="n">
-        <v>55.06786937220213</v>
+        <v>105.7334107493357</v>
       </c>
       <c r="F25" t="n">
         <v>55.06786937220213</v>
@@ -6159,40 +6159,40 @@
         <v>395.6138396402303</v>
       </c>
       <c r="N25" t="n">
-        <v>546.6839950378184</v>
+        <v>546.6839950378185</v>
       </c>
       <c r="O25" t="n">
-        <v>670.8851384052624</v>
+        <v>670.8851384052625</v>
       </c>
       <c r="P25" t="n">
-        <v>753.9381915723562</v>
+        <v>753.9381915723563</v>
       </c>
       <c r="Q25" t="n">
-        <v>727.7595886070824</v>
+        <v>753.9381915723563</v>
       </c>
       <c r="R25" t="n">
-        <v>727.7595886070824</v>
+        <v>608.0000328530383</v>
       </c>
       <c r="S25" t="n">
-        <v>727.7595886070824</v>
+        <v>394.7158116457151</v>
       </c>
       <c r="T25" t="n">
-        <v>727.7595886070824</v>
+        <v>394.7158116457151</v>
       </c>
       <c r="U25" t="n">
-        <v>438.8533292625294</v>
+        <v>394.7158116457151</v>
       </c>
       <c r="V25" t="n">
-        <v>438.8533292625294</v>
+        <v>394.7158116457151</v>
       </c>
       <c r="W25" t="n">
-        <v>149.8709283661501</v>
+        <v>105.7334107493357</v>
       </c>
       <c r="X25" t="n">
-        <v>55.06786937220213</v>
+        <v>105.7334107493357</v>
       </c>
       <c r="Y25" t="n">
-        <v>55.06786937220213</v>
+        <v>105.7334107493357</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1499.685022667996</v>
+        <v>1621.137308263455</v>
       </c>
       <c r="C26" t="n">
-        <v>1128.99300683068</v>
+        <v>1250.445292426139</v>
       </c>
       <c r="D26" t="n">
-        <v>768.7862060684594</v>
+        <v>1210.803476398425</v>
       </c>
       <c r="E26" t="n">
-        <v>381.7982911641286</v>
+        <v>1210.803476398425</v>
       </c>
       <c r="F26" t="n">
-        <v>381.7982911641286</v>
+        <v>799.3955334887874</v>
       </c>
       <c r="G26" t="n">
         <v>381.7982911641286</v>
@@ -6250,28 +6250,28 @@
         <v>2753.393468610107</v>
       </c>
       <c r="R26" t="n">
-        <v>2701.066184926204</v>
+        <v>2753.393468610107</v>
       </c>
       <c r="S26" t="n">
-        <v>2526.117525368455</v>
+        <v>2753.393468610107</v>
       </c>
       <c r="T26" t="n">
-        <v>2307.238746949685</v>
+        <v>2753.393468610107</v>
       </c>
       <c r="U26" t="n">
-        <v>2053.336641963472</v>
+        <v>2753.393468610107</v>
       </c>
       <c r="V26" t="n">
-        <v>2053.336641963472</v>
+        <v>2753.393468610107</v>
       </c>
       <c r="W26" t="n">
-        <v>2053.336641963472</v>
+        <v>2399.322643357021</v>
       </c>
       <c r="X26" t="n">
-        <v>1678.728966073402</v>
+        <v>2399.322643357021</v>
       </c>
       <c r="Y26" t="n">
-        <v>1499.685022667996</v>
+        <v>2008.729641588096</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>55.06786937220213</v>
       </c>
       <c r="J27" t="n">
-        <v>55.06786937220213</v>
+        <v>107.5901014762574</v>
       </c>
       <c r="K27" t="n">
-        <v>316.9230069776626</v>
+        <v>369.4452390817179</v>
       </c>
       <c r="L27" t="n">
-        <v>604.2869699784698</v>
+        <v>782.3913934865486</v>
       </c>
       <c r="M27" t="n">
-        <v>1138.975848831841</v>
+        <v>1317.08027233992</v>
       </c>
       <c r="N27" t="n">
-        <v>1703.215083295478</v>
+        <v>1881.319506803557</v>
       </c>
       <c r="O27" t="n">
-        <v>2151.7557310545</v>
+        <v>2329.860154562579</v>
       </c>
       <c r="P27" t="n">
-        <v>2495.322603844457</v>
+        <v>2673.427027352536</v>
       </c>
       <c r="Q27" t="n">
         <v>2673.427027352536</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>55.06786937220213</v>
+        <v>360.1952331154099</v>
       </c>
       <c r="C28" t="n">
-        <v>55.06786937220213</v>
+        <v>360.1952331154099</v>
       </c>
       <c r="D28" t="n">
-        <v>55.06786937220213</v>
+        <v>360.1952331154099</v>
       </c>
       <c r="E28" t="n">
-        <v>55.06786937220213</v>
+        <v>360.1952331154099</v>
       </c>
       <c r="F28" t="n">
-        <v>55.06786937220213</v>
+        <v>212.5598579539912</v>
       </c>
       <c r="G28" t="n">
-        <v>55.06786937220213</v>
+        <v>212.5598579539912</v>
       </c>
       <c r="H28" t="n">
         <v>55.06786937220213</v>
@@ -6396,40 +6396,40 @@
         <v>395.6138396402303</v>
       </c>
       <c r="N28" t="n">
-        <v>546.6839950378184</v>
+        <v>546.6839950378185</v>
       </c>
       <c r="O28" t="n">
-        <v>670.8851384052624</v>
+        <v>670.8851384052625</v>
       </c>
       <c r="P28" t="n">
-        <v>753.9381915723562</v>
+        <v>753.9381915723563</v>
       </c>
       <c r="Q28" t="n">
-        <v>727.7595886070824</v>
+        <v>753.9381915723563</v>
       </c>
       <c r="R28" t="n">
-        <v>599.4653924207341</v>
+        <v>753.9381915723563</v>
       </c>
       <c r="S28" t="n">
-        <v>599.4653924207341</v>
+        <v>753.9381915723563</v>
       </c>
       <c r="T28" t="n">
-        <v>599.4653924207341</v>
+        <v>753.9381915723563</v>
       </c>
       <c r="U28" t="n">
-        <v>310.5591330761811</v>
+        <v>753.9381915723563</v>
       </c>
       <c r="V28" t="n">
-        <v>55.06786937220213</v>
+        <v>498.4469278683774</v>
       </c>
       <c r="W28" t="n">
-        <v>55.06786937220213</v>
+        <v>498.4469278683774</v>
       </c>
       <c r="X28" t="n">
-        <v>55.06786937220213</v>
+        <v>360.1952331154099</v>
       </c>
       <c r="Y28" t="n">
-        <v>55.06786937220213</v>
+        <v>360.1952331154099</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>605.2140685840388</v>
+        <v>824.0928470028086</v>
       </c>
       <c r="C29" t="n">
-        <v>605.2140685840388</v>
+        <v>453.4008311654928</v>
       </c>
       <c r="D29" t="n">
-        <v>245.0072678218182</v>
+        <v>453.4008311654928</v>
       </c>
       <c r="E29" t="n">
-        <v>245.0072678218182</v>
+        <v>66.41291626116202</v>
       </c>
       <c r="F29" t="n">
-        <v>245.0072678218182</v>
+        <v>66.41291626116202</v>
       </c>
       <c r="G29" t="n">
-        <v>245.0072678218182</v>
+        <v>66.41291626116202</v>
       </c>
       <c r="H29" t="n">
-        <v>55.06786937220213</v>
+        <v>66.41291626116202</v>
       </c>
       <c r="I29" t="n">
         <v>55.06786937220213</v>
@@ -6493,22 +6493,22 @@
         <v>2526.117525368455</v>
       </c>
       <c r="T29" t="n">
-        <v>2307.238746949685</v>
+        <v>2526.117525368455</v>
       </c>
       <c r="U29" t="n">
-        <v>2053.336641963472</v>
+        <v>2272.215420382242</v>
       </c>
       <c r="V29" t="n">
-        <v>1721.484903051836</v>
+        <v>1940.363681470606</v>
       </c>
       <c r="W29" t="n">
-        <v>1367.41407779875</v>
+        <v>1586.29285621752</v>
       </c>
       <c r="X29" t="n">
-        <v>992.8064019086803</v>
+        <v>1211.68518032745</v>
       </c>
       <c r="Y29" t="n">
-        <v>992.8064019086803</v>
+        <v>1211.68518032745</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>55.06786937220213</v>
       </c>
       <c r="J30" t="n">
-        <v>55.06786937220213</v>
+        <v>134.2000638617757</v>
       </c>
       <c r="K30" t="n">
-        <v>316.9230069776626</v>
+        <v>369.4452390817179</v>
       </c>
       <c r="L30" t="n">
-        <v>604.2869699784698</v>
+        <v>782.3913934865486</v>
       </c>
       <c r="M30" t="n">
-        <v>1138.975848831841</v>
+        <v>1317.08027233992</v>
       </c>
       <c r="N30" t="n">
-        <v>1703.215083295478</v>
+        <v>1881.319506803557</v>
       </c>
       <c r="O30" t="n">
-        <v>2151.7557310545</v>
+        <v>2329.860154562579</v>
       </c>
       <c r="P30" t="n">
-        <v>2495.322603844457</v>
+        <v>2673.427027352536</v>
       </c>
       <c r="Q30" t="n">
         <v>2673.427027352536</v>
@@ -6633,34 +6633,34 @@
         <v>395.6138396402303</v>
       </c>
       <c r="N31" t="n">
-        <v>546.6839950378184</v>
+        <v>546.6839950378185</v>
       </c>
       <c r="O31" t="n">
-        <v>670.8851384052624</v>
+        <v>670.8851384052625</v>
       </c>
       <c r="P31" t="n">
-        <v>753.9381915723562</v>
+        <v>753.9381915723563</v>
       </c>
       <c r="Q31" t="n">
-        <v>753.9381915723562</v>
+        <v>753.9381915723563</v>
       </c>
       <c r="R31" t="n">
-        <v>608.0000328530382</v>
+        <v>753.9381915723563</v>
       </c>
       <c r="S31" t="n">
-        <v>608.0000328530382</v>
+        <v>753.9381915723563</v>
       </c>
       <c r="T31" t="n">
-        <v>608.0000328530382</v>
+        <v>753.9381915723563</v>
       </c>
       <c r="U31" t="n">
-        <v>319.0937735084852</v>
+        <v>465.0319322278033</v>
       </c>
       <c r="V31" t="n">
-        <v>319.0937735084852</v>
+        <v>465.0319322278033</v>
       </c>
       <c r="W31" t="n">
-        <v>55.06786937220213</v>
+        <v>176.049531331424</v>
       </c>
       <c r="X31" t="n">
         <v>55.06786937220213</v>
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1621.316182784964</v>
+        <v>1584.362543785707</v>
       </c>
       <c r="C32" t="n">
-        <v>1250.624166947648</v>
+        <v>1213.670527948391</v>
       </c>
       <c r="D32" t="n">
-        <v>1250.624166947648</v>
+        <v>853.4637271861702</v>
       </c>
       <c r="E32" t="n">
-        <v>863.6362520433167</v>
+        <v>466.4758122818394</v>
       </c>
       <c r="F32" t="n">
-        <v>452.2283091336795</v>
+        <v>55.06786937220213</v>
       </c>
       <c r="G32" t="n">
-        <v>452.2283091336795</v>
+        <v>55.06786937220213</v>
       </c>
       <c r="H32" t="n">
-        <v>125.4978873417531</v>
+        <v>55.06786937220213</v>
       </c>
       <c r="I32" t="n">
         <v>55.06786937220213</v>
       </c>
       <c r="J32" t="n">
-        <v>174.8646625184165</v>
+        <v>174.8646625184163</v>
       </c>
       <c r="K32" t="n">
-        <v>476.685594061164</v>
+        <v>476.6855940611638</v>
       </c>
       <c r="L32" t="n">
-        <v>903.0902265954983</v>
+        <v>903.0902265954981</v>
       </c>
       <c r="M32" t="n">
-        <v>1392.759833524793</v>
+        <v>1392.759833524792</v>
       </c>
       <c r="N32" t="n">
         <v>1874.835631635746</v>
       </c>
       <c r="O32" t="n">
-        <v>2283.917786368915</v>
+        <v>2283.917786368914</v>
       </c>
       <c r="P32" t="n">
         <v>2596.121147815524</v>
@@ -6727,25 +6727,25 @@
         <v>2701.066184926204</v>
       </c>
       <c r="S32" t="n">
-        <v>2526.117525368455</v>
+        <v>2701.066184926204</v>
       </c>
       <c r="T32" t="n">
-        <v>2307.238746949685</v>
+        <v>2482.187406507434</v>
       </c>
       <c r="U32" t="n">
-        <v>2307.238746949685</v>
+        <v>2482.187406507434</v>
       </c>
       <c r="V32" t="n">
-        <v>1975.387008038049</v>
+        <v>2482.187406507434</v>
       </c>
       <c r="W32" t="n">
-        <v>1621.316182784964</v>
+        <v>2482.187406507434</v>
       </c>
       <c r="X32" t="n">
-        <v>1621.316182784964</v>
+        <v>2362.547878879273</v>
       </c>
       <c r="Y32" t="n">
-        <v>1621.316182784964</v>
+        <v>1971.954877110348</v>
       </c>
     </row>
     <row r="33">
@@ -6782,22 +6782,22 @@
         <v>55.06786937220213</v>
       </c>
       <c r="K33" t="n">
-        <v>316.9230069776626</v>
+        <v>316.9230069776627</v>
       </c>
       <c r="L33" t="n">
-        <v>604.2869699784698</v>
+        <v>729.8691613824934</v>
       </c>
       <c r="M33" t="n">
-        <v>1138.975848831841</v>
+        <v>1264.558040235865</v>
       </c>
       <c r="N33" t="n">
-        <v>1703.215083295478</v>
+        <v>1828.797274699502</v>
       </c>
       <c r="O33" t="n">
-        <v>2151.7557310545</v>
+        <v>2277.337922458524</v>
       </c>
       <c r="P33" t="n">
-        <v>2495.322603844457</v>
+        <v>2620.904795248481</v>
       </c>
       <c r="Q33" t="n">
         <v>2673.427027352536</v>
@@ -6870,37 +6870,37 @@
         <v>395.6138396402303</v>
       </c>
       <c r="N34" t="n">
-        <v>546.6839950378184</v>
+        <v>546.6839950378185</v>
       </c>
       <c r="O34" t="n">
-        <v>670.8851384052624</v>
+        <v>670.8851384052625</v>
       </c>
       <c r="P34" t="n">
-        <v>753.9381915723562</v>
+        <v>753.9381915723563</v>
       </c>
       <c r="Q34" t="n">
-        <v>727.7595886070824</v>
+        <v>753.9381915723563</v>
       </c>
       <c r="R34" t="n">
-        <v>727.7595886070824</v>
+        <v>753.9381915723563</v>
       </c>
       <c r="S34" t="n">
-        <v>727.7595886070824</v>
+        <v>571.837796253689</v>
       </c>
       <c r="T34" t="n">
-        <v>727.7595886070824</v>
+        <v>343.9741287167552</v>
       </c>
       <c r="U34" t="n">
-        <v>727.7595886070824</v>
+        <v>55.06786937220213</v>
       </c>
       <c r="V34" t="n">
-        <v>472.2683249031034</v>
+        <v>55.06786937220213</v>
       </c>
       <c r="W34" t="n">
-        <v>183.2859240067241</v>
+        <v>55.06786937220213</v>
       </c>
       <c r="X34" t="n">
-        <v>183.2859240067241</v>
+        <v>55.06786937220213</v>
       </c>
       <c r="Y34" t="n">
         <v>55.06786937220213</v>
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1471.172938699464</v>
+        <v>1584.14589919233</v>
       </c>
       <c r="C35" t="n">
-        <v>1100.480922862148</v>
+        <v>1213.453883355014</v>
       </c>
       <c r="D35" t="n">
-        <v>740.2741220999274</v>
+        <v>1213.453883355014</v>
       </c>
       <c r="E35" t="n">
-        <v>471.0331435079308</v>
+        <v>1213.453883355014</v>
       </c>
       <c r="F35" t="n">
-        <v>471.0331435079308</v>
+        <v>949.2377799575586</v>
       </c>
       <c r="G35" t="n">
-        <v>53.43590118327212</v>
+        <v>531.6405376328998</v>
       </c>
       <c r="H35" t="n">
-        <v>53.43590118327212</v>
+        <v>204.9101158409735</v>
       </c>
       <c r="I35" t="n">
         <v>53.43590118327212</v>
       </c>
       <c r="J35" t="n">
-        <v>93.26625307191568</v>
+        <v>93.26625307191534</v>
       </c>
       <c r="K35" t="n">
-        <v>395.0871846146632</v>
+        <v>395.0871846146628</v>
       </c>
       <c r="L35" t="n">
-        <v>821.4918171489974</v>
+        <v>821.491817148997</v>
       </c>
       <c r="M35" t="n">
-        <v>1311.161424078292</v>
+        <v>1311.161424078291</v>
       </c>
       <c r="N35" t="n">
         <v>1793.237222189245</v>
@@ -6967,22 +6967,22 @@
         <v>2444.519115921954</v>
       </c>
       <c r="T35" t="n">
-        <v>2444.519115921954</v>
+        <v>2225.640337503184</v>
       </c>
       <c r="U35" t="n">
-        <v>2190.617010935741</v>
+        <v>1971.738232516971</v>
       </c>
       <c r="V35" t="n">
-        <v>1858.765272024105</v>
+        <v>1971.738232516971</v>
       </c>
       <c r="W35" t="n">
-        <v>1858.765272024105</v>
+        <v>1971.738232516971</v>
       </c>
       <c r="X35" t="n">
-        <v>1858.765272024105</v>
+        <v>1971.738232516971</v>
       </c>
       <c r="Y35" t="n">
-        <v>1858.765272024105</v>
+        <v>1971.738232516971</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>977.764402035607</v>
+        <v>977.7644020356067</v>
       </c>
       <c r="C36" t="n">
-        <v>805.011286957424</v>
+        <v>805.0112869574239</v>
       </c>
       <c r="D36" t="n">
-        <v>657.4229803163678</v>
+        <v>657.4229803163677</v>
       </c>
       <c r="E36" t="n">
         <v>499.8134513192224</v>
       </c>
       <c r="F36" t="n">
-        <v>354.8576613358395</v>
+        <v>354.8576613358392</v>
       </c>
       <c r="G36" t="n">
-        <v>218.2352143726716</v>
+        <v>218.2352143726717</v>
       </c>
       <c r="H36" t="n">
         <v>114.139225544437</v>
@@ -7016,25 +7016,25 @@
         <v>53.43590118327212</v>
       </c>
       <c r="J36" t="n">
-        <v>53.43590118327212</v>
+        <v>132.5680956728457</v>
       </c>
       <c r="K36" t="n">
-        <v>315.2910387887326</v>
+        <v>394.4232332783062</v>
       </c>
       <c r="L36" t="n">
-        <v>728.2371931935633</v>
+        <v>807.3693876831369</v>
       </c>
       <c r="M36" t="n">
-        <v>1262.926072046934</v>
+        <v>1342.058266536508</v>
       </c>
       <c r="N36" t="n">
-        <v>1827.165306510572</v>
+        <v>1701.583115106548</v>
       </c>
       <c r="O36" t="n">
-        <v>2275.705954269593</v>
+        <v>2150.12376286557</v>
       </c>
       <c r="P36" t="n">
-        <v>2619.27282705955</v>
+        <v>2493.690635655527</v>
       </c>
       <c r="Q36" t="n">
         <v>2671.795059163606</v>
@@ -7046,7 +7046,7 @@
         <v>2467.96716463188</v>
       </c>
       <c r="T36" t="n">
-        <v>2270.703494739045</v>
+        <v>2270.703494739044</v>
       </c>
       <c r="U36" t="n">
         <v>2043.828022669005</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.43590118327212</v>
+        <v>507.0224812630447</v>
       </c>
       <c r="C37" t="n">
-        <v>53.43590118327212</v>
+        <v>507.0224812630447</v>
       </c>
       <c r="D37" t="n">
-        <v>53.43590118327212</v>
+        <v>507.0224812630447</v>
       </c>
       <c r="E37" t="n">
-        <v>53.43590118327212</v>
+        <v>358.5632649264799</v>
       </c>
       <c r="F37" t="n">
-        <v>53.43590118327212</v>
+        <v>210.9278897650612</v>
       </c>
       <c r="G37" t="n">
-        <v>53.43590118327212</v>
+        <v>210.9278897650612</v>
       </c>
       <c r="H37" t="n">
         <v>53.43590118327212</v>
@@ -7104,43 +7104,43 @@
         <v>244.4985998616921</v>
       </c>
       <c r="M37" t="n">
-        <v>393.9818714513002</v>
+        <v>393.9818714513003</v>
       </c>
       <c r="N37" t="n">
-        <v>545.0520268488883</v>
+        <v>545.0520268488884</v>
       </c>
       <c r="O37" t="n">
-        <v>669.2531702163324</v>
+        <v>669.2531702163325</v>
       </c>
       <c r="P37" t="n">
-        <v>752.3062233834262</v>
+        <v>752.3062233834263</v>
       </c>
       <c r="Q37" t="n">
-        <v>726.1276204181523</v>
+        <v>752.3062233834263</v>
       </c>
       <c r="R37" t="n">
-        <v>726.1276204181523</v>
+        <v>752.3062233834263</v>
       </c>
       <c r="S37" t="n">
-        <v>726.1276204181523</v>
+        <v>752.3062233834263</v>
       </c>
       <c r="T37" t="n">
-        <v>498.2639528812185</v>
+        <v>752.3062233834263</v>
       </c>
       <c r="U37" t="n">
-        <v>209.3576935366655</v>
+        <v>752.3062233834263</v>
       </c>
       <c r="V37" t="n">
-        <v>209.3576935366655</v>
+        <v>752.3062233834263</v>
       </c>
       <c r="W37" t="n">
-        <v>209.3576935366655</v>
+        <v>752.3062233834263</v>
       </c>
       <c r="X37" t="n">
-        <v>209.3576935366655</v>
+        <v>523.8816173911947</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.43590118327212</v>
+        <v>507.0224812630447</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1195.742660692446</v>
+        <v>1309.444580719779</v>
       </c>
       <c r="C38" t="n">
-        <v>825.05064485513</v>
+        <v>1309.444580719779</v>
       </c>
       <c r="D38" t="n">
-        <v>464.8438440929094</v>
+        <v>949.2377799575586</v>
       </c>
       <c r="E38" t="n">
-        <v>464.8438440929094</v>
+        <v>949.2377799575586</v>
       </c>
       <c r="F38" t="n">
-        <v>53.43590118327212</v>
+        <v>949.2377799575586</v>
       </c>
       <c r="G38" t="n">
-        <v>53.43590118327212</v>
+        <v>531.6405376328998</v>
       </c>
       <c r="H38" t="n">
-        <v>53.43590118327212</v>
+        <v>204.9101158409735</v>
       </c>
       <c r="I38" t="n">
         <v>53.43590118327212</v>
@@ -7177,19 +7177,19 @@
         <v>173.2326943294863</v>
       </c>
       <c r="K38" t="n">
-        <v>475.0536258722338</v>
+        <v>475.0536258722339</v>
       </c>
       <c r="L38" t="n">
-        <v>901.458258406568</v>
+        <v>901.4582584065681</v>
       </c>
       <c r="M38" t="n">
-        <v>1391.127865335862</v>
+        <v>1311.161424078291</v>
       </c>
       <c r="N38" t="n">
-        <v>1873.203663446816</v>
+        <v>1793.237222189245</v>
       </c>
       <c r="O38" t="n">
-        <v>2282.285818179984</v>
+        <v>2202.319376922414</v>
       </c>
       <c r="P38" t="n">
         <v>2514.522738369024</v>
@@ -7198,28 +7198,28 @@
         <v>2671.795059163606</v>
       </c>
       <c r="R38" t="n">
-        <v>2619.467775479703</v>
+        <v>2671.795059163606</v>
       </c>
       <c r="S38" t="n">
-        <v>2510.17500573345</v>
+        <v>2671.795059163606</v>
       </c>
       <c r="T38" t="n">
-        <v>2510.17500573345</v>
+        <v>2671.795059163606</v>
       </c>
       <c r="U38" t="n">
-        <v>2256.272900747237</v>
+        <v>2671.795059163606</v>
       </c>
       <c r="V38" t="n">
-        <v>1924.421161835602</v>
+        <v>2671.795059163606</v>
       </c>
       <c r="W38" t="n">
-        <v>1570.350336582516</v>
+        <v>2462.237591703416</v>
       </c>
       <c r="X38" t="n">
-        <v>1195.742660692446</v>
+        <v>2087.629915813346</v>
       </c>
       <c r="Y38" t="n">
-        <v>1195.742660692446</v>
+        <v>1697.036914044421</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>977.7644020356067</v>
+        <v>977.764402035607</v>
       </c>
       <c r="C39" t="n">
-        <v>805.0112869574239</v>
+        <v>805.011286957424</v>
       </c>
       <c r="D39" t="n">
-        <v>657.4229803163677</v>
+        <v>657.4229803163678</v>
       </c>
       <c r="E39" t="n">
         <v>499.8134513192224</v>
       </c>
       <c r="F39" t="n">
-        <v>354.8576613358393</v>
+        <v>354.8576613358395</v>
       </c>
       <c r="G39" t="n">
-        <v>218.2352143726717</v>
+        <v>218.2352143726716</v>
       </c>
       <c r="H39" t="n">
         <v>114.139225544437</v>
@@ -7253,25 +7253,25 @@
         <v>53.43590118327212</v>
       </c>
       <c r="J39" t="n">
-        <v>132.5680956728457</v>
+        <v>53.43590118327212</v>
       </c>
       <c r="K39" t="n">
-        <v>394.4232332783062</v>
+        <v>315.2910387887326</v>
       </c>
       <c r="L39" t="n">
-        <v>807.3693876831369</v>
+        <v>728.2371931935634</v>
       </c>
       <c r="M39" t="n">
-        <v>1342.058266536508</v>
+        <v>1262.926072046934</v>
       </c>
       <c r="N39" t="n">
-        <v>1906.297501000145</v>
+        <v>1827.165306510572</v>
       </c>
       <c r="O39" t="n">
-        <v>2150.12376286557</v>
+        <v>2275.705954269594</v>
       </c>
       <c r="P39" t="n">
-        <v>2493.690635655527</v>
+        <v>2619.272827059551</v>
       </c>
       <c r="Q39" t="n">
         <v>2671.795059163606</v>
@@ -7341,34 +7341,34 @@
         <v>244.4985998616921</v>
       </c>
       <c r="M40" t="n">
-        <v>393.9818714513002</v>
+        <v>393.9818714513003</v>
       </c>
       <c r="N40" t="n">
-        <v>545.0520268488883</v>
+        <v>545.0520268488884</v>
       </c>
       <c r="O40" t="n">
-        <v>669.2531702163324</v>
+        <v>669.2531702163325</v>
       </c>
       <c r="P40" t="n">
-        <v>752.3062233834262</v>
+        <v>752.3062233834263</v>
       </c>
       <c r="Q40" t="n">
-        <v>726.1276204181523</v>
+        <v>752.3062233834263</v>
       </c>
       <c r="R40" t="n">
-        <v>580.1894616988343</v>
+        <v>606.3680646641083</v>
       </c>
       <c r="S40" t="n">
-        <v>366.9052404915111</v>
+        <v>393.083843456785</v>
       </c>
       <c r="T40" t="n">
-        <v>139.0415729545772</v>
+        <v>165.2201759198512</v>
       </c>
       <c r="U40" t="n">
-        <v>53.43590118327212</v>
+        <v>165.2201759198512</v>
       </c>
       <c r="V40" t="n">
-        <v>53.43590118327212</v>
+        <v>165.2201759198512</v>
       </c>
       <c r="W40" t="n">
         <v>53.43590118327212</v>
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1777.402327369579</v>
+        <v>911.2079924621796</v>
       </c>
       <c r="C41" t="n">
-        <v>1569.378308971715</v>
+        <v>911.2079924621796</v>
       </c>
       <c r="D41" t="n">
-        <v>1209.171508209495</v>
+        <v>911.2079924621796</v>
       </c>
       <c r="E41" t="n">
-        <v>1209.171508209495</v>
+        <v>797.7635652998572</v>
       </c>
       <c r="F41" t="n">
         <v>797.7635652998572</v>
@@ -7405,58 +7405,58 @@
         <v>380.1663229751985</v>
       </c>
       <c r="H41" t="n">
-        <v>53.4359011832721</v>
+        <v>53.43590118327212</v>
       </c>
       <c r="I41" t="n">
-        <v>53.4359011832721</v>
+        <v>53.43590118327212</v>
       </c>
       <c r="J41" t="n">
         <v>173.2326943294863</v>
       </c>
       <c r="K41" t="n">
-        <v>475.0536258722338</v>
+        <v>475.0536258722339</v>
       </c>
       <c r="L41" t="n">
-        <v>901.458258406568</v>
+        <v>901.4582584065681</v>
       </c>
       <c r="M41" t="n">
-        <v>1391.127865335862</v>
+        <v>1391.127865335863</v>
       </c>
       <c r="N41" t="n">
         <v>1873.203663446816</v>
       </c>
       <c r="O41" t="n">
-        <v>2282.285818179984</v>
+        <v>2202.319376922414</v>
       </c>
       <c r="P41" t="n">
-        <v>2514.522738369023</v>
+        <v>2514.522738369024</v>
       </c>
       <c r="Q41" t="n">
-        <v>2671.795059163605</v>
+        <v>2671.795059163606</v>
       </c>
       <c r="R41" t="n">
-        <v>2671.795059163605</v>
+        <v>2619.467775479703</v>
       </c>
       <c r="S41" t="n">
-        <v>2496.846399605856</v>
+        <v>2444.519115921954</v>
       </c>
       <c r="T41" t="n">
-        <v>2496.846399605856</v>
+        <v>2225.640337503184</v>
       </c>
       <c r="U41" t="n">
-        <v>2496.846399605856</v>
+        <v>1971.738232516971</v>
       </c>
       <c r="V41" t="n">
-        <v>2164.99466069422</v>
+        <v>1639.886493605335</v>
       </c>
       <c r="W41" t="n">
-        <v>2164.99466069422</v>
+        <v>1285.81566835225</v>
       </c>
       <c r="X41" t="n">
-        <v>2164.99466069422</v>
+        <v>911.2079924621796</v>
       </c>
       <c r="Y41" t="n">
-        <v>2164.99466069422</v>
+        <v>911.2079924621796</v>
       </c>
     </row>
     <row r="42">
@@ -7466,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>977.7644020356067</v>
+        <v>977.7644020356071</v>
       </c>
       <c r="C42" t="n">
         <v>805.0112869574239</v>
@@ -7487,31 +7487,31 @@
         <v>114.139225544437</v>
       </c>
       <c r="I42" t="n">
-        <v>53.4359011832721</v>
+        <v>53.43590118327212</v>
       </c>
       <c r="J42" t="n">
-        <v>132.5680956728456</v>
+        <v>132.5680956728457</v>
       </c>
       <c r="K42" t="n">
-        <v>189.7088473847082</v>
+        <v>394.4232332783062</v>
       </c>
       <c r="L42" t="n">
-        <v>602.6550017895389</v>
+        <v>807.3693876831369</v>
       </c>
       <c r="M42" t="n">
-        <v>1137.34388064291</v>
+        <v>1342.058266536508</v>
       </c>
       <c r="N42" t="n">
-        <v>1701.583115106547</v>
+        <v>1701.583115106548</v>
       </c>
       <c r="O42" t="n">
-        <v>2150.123762865569</v>
+        <v>2150.12376286557</v>
       </c>
       <c r="P42" t="n">
-        <v>2493.690635655526</v>
+        <v>2493.690635655527</v>
       </c>
       <c r="Q42" t="n">
-        <v>2671.795059163605</v>
+        <v>2671.795059163606</v>
       </c>
       <c r="R42" t="n">
         <v>2624.245097523326</v>
@@ -7520,7 +7520,7 @@
         <v>2467.96716463188</v>
       </c>
       <c r="T42" t="n">
-        <v>2270.703494739044</v>
+        <v>2270.703494739045</v>
       </c>
       <c r="U42" t="n">
         <v>2043.828022669005</v>
@@ -7535,7 +7535,7 @@
         <v>1350.535388933517</v>
       </c>
       <c r="Y42" t="n">
-        <v>1144.806953157167</v>
+        <v>1144.806953157168</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>284.9797316738953</v>
+        <v>201.0712763446908</v>
       </c>
       <c r="C43" t="n">
-        <v>284.9797316738953</v>
+        <v>201.0712763446908</v>
       </c>
       <c r="D43" t="n">
-        <v>284.9797316738953</v>
+        <v>201.0712763446908</v>
       </c>
       <c r="E43" t="n">
-        <v>284.9797316738953</v>
+        <v>201.0712763446908</v>
       </c>
       <c r="F43" t="n">
-        <v>284.9797316738953</v>
+        <v>53.43590118327212</v>
       </c>
       <c r="G43" t="n">
-        <v>284.9797316738953</v>
+        <v>53.43590118327212</v>
       </c>
       <c r="H43" t="n">
-        <v>189.21497185795</v>
+        <v>53.43590118327212</v>
       </c>
       <c r="I43" t="n">
-        <v>53.4359011832721</v>
+        <v>53.43590118327212</v>
       </c>
       <c r="J43" t="n">
-        <v>53.4359011832721</v>
+        <v>53.43590118327212</v>
       </c>
       <c r="K43" t="n">
         <v>112.7690201393558</v>
       </c>
       <c r="L43" t="n">
-        <v>244.498599861692</v>
+        <v>244.4985998616921</v>
       </c>
       <c r="M43" t="n">
-        <v>393.9818714513002</v>
+        <v>393.9818714513003</v>
       </c>
       <c r="N43" t="n">
-        <v>545.0520268488883</v>
+        <v>545.0520268488884</v>
       </c>
       <c r="O43" t="n">
-        <v>669.2531702163324</v>
+        <v>669.2531702163325</v>
       </c>
       <c r="P43" t="n">
-        <v>752.3062233834262</v>
+        <v>752.3062233834263</v>
       </c>
       <c r="Q43" t="n">
-        <v>726.1276204181523</v>
+        <v>752.3062233834263</v>
       </c>
       <c r="R43" t="n">
-        <v>726.1276204181523</v>
+        <v>752.3062233834263</v>
       </c>
       <c r="S43" t="n">
-        <v>512.8433992108291</v>
+        <v>752.3062233834263</v>
       </c>
       <c r="T43" t="n">
-        <v>284.9797316738953</v>
+        <v>752.3062233834263</v>
       </c>
       <c r="U43" t="n">
-        <v>284.9797316738953</v>
+        <v>463.3999640388733</v>
       </c>
       <c r="V43" t="n">
-        <v>284.9797316738953</v>
+        <v>463.3999640388733</v>
       </c>
       <c r="W43" t="n">
-        <v>284.9797316738953</v>
+        <v>201.0712763446908</v>
       </c>
       <c r="X43" t="n">
-        <v>284.9797316738953</v>
+        <v>201.0712763446908</v>
       </c>
       <c r="Y43" t="n">
-        <v>284.9797316738953</v>
+        <v>201.0712763446908</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>683.753174699018</v>
+        <v>1464.758959526077</v>
       </c>
       <c r="C44" t="n">
-        <v>313.0611588617022</v>
+        <v>1094.066943688761</v>
       </c>
       <c r="D44" t="n">
-        <v>313.0611588617022</v>
+        <v>1094.066943688761</v>
       </c>
       <c r="E44" t="n">
-        <v>313.0611588617022</v>
+        <v>1033.91530107527</v>
       </c>
       <c r="F44" t="n">
-        <v>53.4359011832721</v>
+        <v>622.5073581656322</v>
       </c>
       <c r="G44" t="n">
-        <v>53.4359011832721</v>
+        <v>204.9101158409735</v>
       </c>
       <c r="H44" t="n">
-        <v>53.4359011832721</v>
+        <v>204.9101158409735</v>
       </c>
       <c r="I44" t="n">
-        <v>53.4359011832721</v>
+        <v>53.43590118327212</v>
       </c>
       <c r="J44" t="n">
-        <v>93.26625307191478</v>
+        <v>173.2326943294863</v>
       </c>
       <c r="K44" t="n">
-        <v>395.0871846146622</v>
+        <v>475.0536258722339</v>
       </c>
       <c r="L44" t="n">
-        <v>821.4918171489965</v>
+        <v>821.491817148997</v>
       </c>
       <c r="M44" t="n">
         <v>1311.161424078291</v>
       </c>
       <c r="N44" t="n">
-        <v>1793.237222189244</v>
+        <v>1793.237222189245</v>
       </c>
       <c r="O44" t="n">
-        <v>2202.319376922413</v>
+        <v>2202.319376922414</v>
       </c>
       <c r="P44" t="n">
-        <v>2514.522738369023</v>
+        <v>2514.522738369024</v>
       </c>
       <c r="Q44" t="n">
-        <v>2671.795059163605</v>
+        <v>2671.795059163606</v>
       </c>
       <c r="R44" t="n">
-        <v>2619.467775479702</v>
+        <v>2671.795059163606</v>
       </c>
       <c r="S44" t="n">
-        <v>2444.519115921953</v>
+        <v>2496.846399605857</v>
       </c>
       <c r="T44" t="n">
-        <v>2444.519115921953</v>
+        <v>2496.846399605857</v>
       </c>
       <c r="U44" t="n">
-        <v>2190.61701093574</v>
+        <v>2242.944294619644</v>
       </c>
       <c r="V44" t="n">
-        <v>2190.61701093574</v>
+        <v>2242.944294619644</v>
       </c>
       <c r="W44" t="n">
-        <v>1836.546185682655</v>
+        <v>2242.944294619644</v>
       </c>
       <c r="X44" t="n">
-        <v>1461.938509792584</v>
+        <v>2242.944294619644</v>
       </c>
       <c r="Y44" t="n">
-        <v>1071.345508023659</v>
+        <v>1852.351292850718</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>977.7644020356067</v>
+        <v>977.7644020356065</v>
       </c>
       <c r="C45" t="n">
-        <v>805.0112869574239</v>
+        <v>805.0112869574236</v>
       </c>
       <c r="D45" t="n">
-        <v>657.4229803163677</v>
+        <v>657.4229803163676</v>
       </c>
       <c r="E45" t="n">
-        <v>499.8134513192224</v>
+        <v>499.8134513192222</v>
       </c>
       <c r="F45" t="n">
         <v>354.8576613358392</v>
@@ -7724,49 +7724,49 @@
         <v>114.139225544437</v>
       </c>
       <c r="I45" t="n">
-        <v>53.4359011832721</v>
+        <v>53.43590118327212</v>
       </c>
       <c r="J45" t="n">
-        <v>132.5680956728456</v>
+        <v>132.5680956728457</v>
       </c>
       <c r="K45" t="n">
-        <v>394.4232332783061</v>
+        <v>394.4232332783062</v>
       </c>
       <c r="L45" t="n">
-        <v>807.3693876831368</v>
+        <v>807.3693876831369</v>
       </c>
       <c r="M45" t="n">
         <v>1342.058266536508</v>
       </c>
       <c r="N45" t="n">
-        <v>1879.687538614626</v>
+        <v>1701.583115106548</v>
       </c>
       <c r="O45" t="n">
-        <v>2328.228186373648</v>
+        <v>2150.12376286557</v>
       </c>
       <c r="P45" t="n">
-        <v>2671.795059163605</v>
+        <v>2493.690635655527</v>
       </c>
       <c r="Q45" t="n">
-        <v>2671.795059163605</v>
+        <v>2671.795059163606</v>
       </c>
       <c r="R45" t="n">
         <v>2624.245097523326</v>
       </c>
       <c r="S45" t="n">
-        <v>2467.967164631879</v>
+        <v>2467.96716463188</v>
       </c>
       <c r="T45" t="n">
         <v>2270.703494739044</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.828022669004</v>
+        <v>2043.828022669005</v>
       </c>
       <c r="V45" t="n">
-        <v>1809.576779194605</v>
+        <v>1809.576779194606</v>
       </c>
       <c r="W45" t="n">
-        <v>1557.062287527938</v>
+        <v>1557.062287527939</v>
       </c>
       <c r="X45" t="n">
         <v>1350.535388933517</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2127.397536115073</v>
+        <v>463.323822487047</v>
       </c>
       <c r="C46" t="n">
-        <v>2127.397536115073</v>
+        <v>463.323822487047</v>
       </c>
       <c r="D46" t="n">
-        <v>2127.397536115073</v>
+        <v>312.8131492400577</v>
       </c>
       <c r="E46" t="n">
-        <v>2127.397536115073</v>
+        <v>164.3539329034929</v>
       </c>
       <c r="F46" t="n">
-        <v>2127.397536115073</v>
+        <v>164.3539329034929</v>
       </c>
       <c r="G46" t="n">
-        <v>2127.397536115073</v>
+        <v>53.43590118327212</v>
       </c>
       <c r="H46" t="n">
-        <v>2108.703807638129</v>
+        <v>53.43590118327212</v>
       </c>
       <c r="I46" t="n">
-        <v>1972.924736963451</v>
+        <v>53.43590118327212</v>
       </c>
       <c r="J46" t="n">
-        <v>1972.924736963451</v>
+        <v>53.43590118327212</v>
       </c>
       <c r="K46" t="n">
-        <v>2032.257855919535</v>
+        <v>112.7690201393558</v>
       </c>
       <c r="L46" t="n">
-        <v>2163.987435641871</v>
+        <v>244.4985998616921</v>
       </c>
       <c r="M46" t="n">
-        <v>2313.470707231479</v>
+        <v>393.9818714513003</v>
       </c>
       <c r="N46" t="n">
-        <v>2464.540862629067</v>
+        <v>545.0520268488884</v>
       </c>
       <c r="O46" t="n">
-        <v>2588.742005996511</v>
+        <v>669.2531702163325</v>
       </c>
       <c r="P46" t="n">
-        <v>2671.795059163605</v>
+        <v>752.3062233834263</v>
       </c>
       <c r="Q46" t="n">
-        <v>2671.795059163605</v>
+        <v>752.3062233834263</v>
       </c>
       <c r="R46" t="n">
-        <v>2671.795059163605</v>
+        <v>752.3062233834263</v>
       </c>
       <c r="S46" t="n">
-        <v>2671.795059163605</v>
+        <v>752.3062233834263</v>
       </c>
       <c r="T46" t="n">
-        <v>2671.795059163605</v>
+        <v>752.3062233834263</v>
       </c>
       <c r="U46" t="n">
-        <v>2382.888799819052</v>
+        <v>752.3062233834263</v>
       </c>
       <c r="V46" t="n">
-        <v>2127.397536115073</v>
+        <v>752.3062233834263</v>
       </c>
       <c r="W46" t="n">
-        <v>2127.397536115073</v>
+        <v>463.323822487047</v>
       </c>
       <c r="X46" t="n">
-        <v>2127.397536115073</v>
+        <v>463.323822487047</v>
       </c>
       <c r="Y46" t="n">
-        <v>2127.397536115073</v>
+        <v>463.323822487047</v>
       </c>
     </row>
   </sheetData>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>175.8604797789567</v>
+        <v>95.08629669050117</v>
       </c>
       <c r="K11" t="n">
         <v>337.1112290740114</v>
@@ -8698,7 +8698,7 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M11" t="n">
-        <v>386.719891744091</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N11" t="n">
         <v>454.8408013884635</v>
@@ -8768,7 +8768,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>131.1346767540252</v>
+        <v>51.20316716859735</v>
       </c>
       <c r="K12" t="n">
         <v>275.0438464930818</v>
@@ -8777,7 +8777,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M12" t="n">
-        <v>277.55105832667</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
         <v>498.5160693172957</v>
@@ -8789,7 +8789,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>218.4803792452831</v>
+        <v>91.62968085738029</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -8932,7 +8932,7 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L14" t="n">
-        <v>353.5934800440136</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M14" t="n">
         <v>467.4940748325458</v>
@@ -8941,7 +8941,7 @@
         <v>454.8408013884635</v>
       </c>
       <c r="O14" t="n">
-        <v>396.0321885132552</v>
+        <v>315.2580054247995</v>
       </c>
       <c r="P14" t="n">
         <v>334.6706564983419</v>
@@ -9017,7 +9017,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N15" t="n">
-        <v>291.7338613439658</v>
+        <v>291.733861343965</v>
       </c>
       <c r="O15" t="n">
         <v>409.6168120477987</v>
@@ -9169,10 +9169,10 @@
         <v>337.1112290740114</v>
       </c>
       <c r="L17" t="n">
-        <v>353.5934800440132</v>
+        <v>434.3676631324684</v>
       </c>
       <c r="M17" t="n">
-        <v>467.4940748325458</v>
+        <v>386.7198917440901</v>
       </c>
       <c r="N17" t="n">
         <v>454.8408013884635</v>
@@ -9254,7 +9254,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>291.7338613439653</v>
+        <v>291.733861343965</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>175.8604797789567</v>
+        <v>95.08629669050117</v>
       </c>
       <c r="K20" t="n">
         <v>337.1112290740114</v>
@@ -9412,7 +9412,7 @@
         <v>467.4940748325458</v>
       </c>
       <c r="N20" t="n">
-        <v>374.0666183000083</v>
+        <v>454.8408013884635</v>
       </c>
       <c r="O20" t="n">
         <v>396.0321885132552</v>
@@ -9488,13 +9488,13 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
-        <v>484.3332662999999</v>
+        <v>277.5510583266695</v>
       </c>
       <c r="N21" t="n">
         <v>498.5160693172957</v>
       </c>
       <c r="O21" t="n">
-        <v>202.8346040744682</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P21" t="n">
         <v>331.2012793855346</v>
@@ -9652,7 +9652,7 @@
         <v>454.8408013884635</v>
       </c>
       <c r="O23" t="n">
-        <v>396.0321885132551</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P23" t="n">
         <v>334.6706564983419</v>
@@ -9716,10 +9716,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>131.1346767540252</v>
+        <v>51.20316716859735</v>
       </c>
       <c r="K24" t="n">
-        <v>275.0438464930818</v>
+        <v>148.1931481051791</v>
       </c>
       <c r="L24" t="n">
         <v>385.6739591155975</v>
@@ -9734,7 +9734,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
-        <v>124.4190714122043</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
         <v>218.4803792452831</v>
@@ -9889,7 +9889,7 @@
         <v>454.8408013884635</v>
       </c>
       <c r="O26" t="n">
-        <v>396.0321885132551</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P26" t="n">
         <v>334.6706564983419</v>
@@ -9953,13 +9953,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>51.20316716859736</v>
+        <v>104.2559268696632</v>
       </c>
       <c r="K27" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L27" t="n">
-        <v>258.823260727695</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M27" t="n">
         <v>484.3332662999999</v>
@@ -9974,7 +9974,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
-        <v>218.4803792452831</v>
+        <v>38.57692115631454</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10190,13 +10190,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>51.20316716859736</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K30" t="n">
-        <v>275.0438464930818</v>
+        <v>248.1650966087199</v>
       </c>
       <c r="L30" t="n">
-        <v>258.823260727695</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M30" t="n">
         <v>484.3332662999999</v>
@@ -10211,7 +10211,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
-        <v>218.4803792452831</v>
+        <v>38.57692115631454</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10427,13 +10427,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>51.20316716859736</v>
+        <v>51.20316716859735</v>
       </c>
       <c r="K33" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L33" t="n">
-        <v>258.823260727695</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M33" t="n">
         <v>484.3332662999999</v>
@@ -10448,7 +10448,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
-        <v>218.4803792452831</v>
+        <v>91.62968085737984</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>95.08629669050151</v>
+        <v>95.08629669050117</v>
       </c>
       <c r="K35" t="n">
         <v>337.1112290740114</v>
@@ -10664,7 +10664,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>51.20316716859736</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
         <v>275.0438464930818</v>
@@ -10676,7 +10676,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N36" t="n">
-        <v>498.5160693172957</v>
+        <v>291.733861343965</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
@@ -10685,7 +10685,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>91.62968085738076</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10831,7 +10831,7 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M38" t="n">
-        <v>467.4940748325458</v>
+        <v>386.7198917440901</v>
       </c>
       <c r="N38" t="n">
         <v>454.8408013884635</v>
@@ -10840,7 +10840,7 @@
         <v>396.0321885132552</v>
       </c>
       <c r="P38" t="n">
-        <v>253.8964734098867</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q38" t="n">
         <v>220.8075902863009</v>
@@ -10901,7 +10901,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>131.1346767540252</v>
+        <v>51.20316716859735</v>
       </c>
       <c r="K39" t="n">
         <v>275.0438464930818</v>
@@ -10916,13 +10916,13 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O39" t="n">
-        <v>202.8346040744682</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q39" t="n">
-        <v>218.4803792452831</v>
+        <v>91.62968085738029</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11074,10 +11074,10 @@
         <v>454.8408013884635</v>
       </c>
       <c r="O41" t="n">
-        <v>396.0321885132552</v>
+        <v>315.2580054247995</v>
       </c>
       <c r="P41" t="n">
-        <v>253.8964734098858</v>
+        <v>334.6706564983419</v>
       </c>
       <c r="Q41" t="n">
         <v>220.8075902863009</v>
@@ -11141,7 +11141,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K42" t="n">
-        <v>68.26163851975062</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L42" t="n">
         <v>385.6739591155975</v>
@@ -11150,7 +11150,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>498.5160693172957</v>
+        <v>291.733861343965</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>95.08629669050062</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
         <v>337.1112290740114</v>
       </c>
       <c r="L44" t="n">
-        <v>434.3676631324684</v>
+        <v>353.5934800440128</v>
       </c>
       <c r="M44" t="n">
         <v>467.4940748325458</v>
@@ -11387,7 +11387,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
-        <v>471.6373194329331</v>
+        <v>291.733861343965</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
@@ -11396,7 +11396,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
-        <v>38.57692115631455</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -23260,22 +23260,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>375.340759982469</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>283.7816777596657</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.4631175740071</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>51.80401084706395</v>
       </c>
       <c r="S11" t="n">
         <v>173.1991729621715</v>
@@ -23320,7 +23320,7 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>370.8615991311694</v>
@@ -23430,7 +23430,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>167.2465721975682</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>155.9170686959712</v>
@@ -23439,7 +23439,7 @@
         <v>134.4212799679311</v>
       </c>
       <c r="J13" t="n">
-        <v>43.37756193720836</v>
+        <v>43.37756193720834</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>25.91681693562114</v>
+        <v>25.91681693562112</v>
       </c>
       <c r="R13" t="n">
-        <v>144.4787771321248</v>
+        <v>117.0123060978978</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>30.87198762976948</v>
+        <v>225.5850308615645</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>98.6445521404728</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,10 +23509,10 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.4212699014121</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.4631175740071</v>
       </c>
       <c r="I14" t="n">
         <v>149.9594725111243</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>173.1991729621715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.6899906345822</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>328.5332215225193</v>
+        <v>111.4259980973348</v>
       </c>
       <c r="W14" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23670,13 +23670,13 @@
         <v>167.2465721975682</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>155.9170686959712</v>
       </c>
       <c r="I16" t="n">
         <v>134.4212799679311</v>
       </c>
       <c r="J16" t="n">
-        <v>43.37756193720835</v>
+        <v>43.37756193720834</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>25.91681693562113</v>
+        <v>25.91681693562112</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>144.4787771321248</v>
       </c>
       <c r="S16" t="n">
-        <v>211.15137899525</v>
+        <v>91.37953365562029</v>
       </c>
       <c r="T16" t="n">
         <v>225.5850308615645</v>
       </c>
       <c r="U16" t="n">
-        <v>286.0171967511075</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.9363510669392</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>120.7471636696684</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y16" t="n">
         <v>218.7486738677682</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D17" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>407.2938634805408</v>
+        <v>42.09132620241718</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.4631175740071</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>24.08019048574259</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>51.80401084706396</v>
+        <v>51.80401084706395</v>
       </c>
       <c r="S17" t="n">
         <v>173.1991729621715</v>
@@ -23791,16 +23791,16 @@
         <v>251.3630839363509</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="18">
@@ -23913,7 +23913,7 @@
         <v>134.4212799679311</v>
       </c>
       <c r="J19" t="n">
-        <v>43.37756193720835</v>
+        <v>43.37756193720834</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,10 +23934,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>25.91681693562113</v>
+        <v>25.91681693562112</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>144.4787771321248</v>
       </c>
       <c r="S19" t="n">
         <v>211.15137899525</v>
@@ -23946,19 +23946,19 @@
         <v>225.5850308615645</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>98.97682852813858</v>
       </c>
       <c r="V19" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W19" t="n">
-        <v>24.70693179249537</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23974,19 +23974,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>92.79610205265652</v>
       </c>
       <c r="H20" t="n">
-        <v>254.6751127882435</v>
+        <v>323.4631175740071</v>
       </c>
       <c r="I20" t="n">
         <v>149.9594725111243</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>51.80401084706395</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>173.1991729621715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.6899906345822</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.3630839363509</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24150,7 +24150,7 @@
         <v>134.4212799679311</v>
       </c>
       <c r="J22" t="n">
-        <v>43.37756193720835</v>
+        <v>43.37756193720834</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,25 +24171,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>25.91681693562113</v>
+        <v>25.91681693562112</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>144.4787771321248</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>211.15137899525</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.5850308615645</v>
       </c>
       <c r="U22" t="n">
-        <v>286.0171967511075</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>142.2699190777259</v>
+        <v>133.1645057273095</v>
       </c>
       <c r="W22" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>226.1403599323093</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>366.9850956789426</v>
@@ -24217,16 +24217,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>161.6214090726752</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.4631175740071</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>149.9594725111243</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,19 +24259,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.6899906345822</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>297.9704845363446</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
-        <v>146.1590214098045</v>
+        <v>96.00013544644221</v>
       </c>
       <c r="G25" t="n">
         <v>167.2465721975682</v>
@@ -24387,7 +24387,7 @@
         <v>134.4212799679311</v>
       </c>
       <c r="J25" t="n">
-        <v>43.37756193720835</v>
+        <v>43.37756193720834</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,19 +24408,19 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>25.91681693562112</v>
       </c>
       <c r="R25" t="n">
-        <v>144.4787771321248</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>211.15137899525</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>225.5850308615645</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.0171967511075</v>
       </c>
       <c r="V25" t="n">
         <v>252.9363510669392</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>132.2853315283008</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y25" t="n">
         <v>218.7486738677682</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>317.3593348871616</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.4212699014121</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>51.80401084706395</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>173.1991729621715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.6899906345822</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.3630839363509</v>
       </c>
       <c r="V26" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
-        <v>209.4335677798841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24612,19 +24612,19 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F28" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.2465721975682</v>
       </c>
       <c r="H28" t="n">
-        <v>155.9170686959712</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>134.4212799679311</v>
       </c>
       <c r="J28" t="n">
-        <v>43.37756193720835</v>
+        <v>43.37756193720834</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,10 +24645,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>25.91681693562112</v>
       </c>
       <c r="R28" t="n">
-        <v>17.46752290764007</v>
+        <v>144.4787771321248</v>
       </c>
       <c r="S28" t="n">
         <v>211.15137899525</v>
@@ -24657,7 +24657,7 @@
         <v>225.5850308615645</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.0171967511075</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X28" t="n">
-        <v>226.1403599323093</v>
+        <v>89.27118212687148</v>
       </c>
       <c r="Y28" t="n">
         <v>218.7486738677682</v>
@@ -24682,13 +24682,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>407.2938634805408</v>
@@ -24697,10 +24697,10 @@
         <v>413.4212699014121</v>
       </c>
       <c r="H29" t="n">
-        <v>135.4231131088872</v>
+        <v>323.4631175740071</v>
       </c>
       <c r="I29" t="n">
-        <v>149.9594725111243</v>
+        <v>138.727876091054</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.6899906345822</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24861,7 +24861,7 @@
         <v>134.4212799679311</v>
       </c>
       <c r="J31" t="n">
-        <v>43.37756193720835</v>
+        <v>43.37756193720834</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,10 +24882,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>25.91681693562113</v>
+        <v>25.91681693562112</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>144.4787771321248</v>
       </c>
       <c r="S31" t="n">
         <v>211.15137899525</v>
@@ -24900,10 +24900,10 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
-        <v>24.70693179249537</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>226.1403599323093</v>
+        <v>106.3685145926796</v>
       </c>
       <c r="Y31" t="n">
         <v>218.7486738677682</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>413.4212699014121</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.4631175740071</v>
       </c>
       <c r="I32" t="n">
-        <v>80.23375472126889</v>
+        <v>149.9594725111243</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>173.1991729621715</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>251.3630839363509</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
-        <v>370.8615991311694</v>
+        <v>252.4184667792905</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25098,7 +25098,7 @@
         <v>134.4212799679311</v>
       </c>
       <c r="J34" t="n">
-        <v>43.37756193720835</v>
+        <v>43.37756193720834</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,31 +25119,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>25.91681693562112</v>
       </c>
       <c r="R34" t="n">
         <v>144.4787771321248</v>
       </c>
       <c r="S34" t="n">
-        <v>211.15137899525</v>
+        <v>30.87198762976934</v>
       </c>
       <c r="T34" t="n">
-        <v>225.5850308615645</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.0171967511075</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X34" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y34" t="n">
-        <v>91.81279977959149</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="35">
@@ -25159,22 +25159,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
-        <v>116.5694669492109</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
-        <v>407.2938634805408</v>
+        <v>145.7199211170603</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.4631175740071</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>149.9594725111243</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.6899906345822</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
         <v>350.5301170005546</v>
@@ -25320,22 +25320,22 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.2465721975682</v>
       </c>
       <c r="H37" t="n">
-        <v>155.9170686959712</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>134.4212799679311</v>
       </c>
       <c r="J37" t="n">
-        <v>43.37756193720835</v>
+        <v>43.37756193720834</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>25.91681693562112</v>
       </c>
       <c r="R37" t="n">
         <v>144.4787771321248</v>
@@ -25365,10 +25365,10 @@
         <v>211.15137899525</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.5850308615645</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.0171967511075</v>
       </c>
       <c r="V37" t="n">
         <v>252.9363510669392</v>
@@ -25377,10 +25377,10 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X37" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>64.38609943790874</v>
+        <v>202.0581291008997</v>
       </c>
     </row>
     <row r="38">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25402,16 +25402,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
-        <v>413.4212699014121</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.4631175740071</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>149.9594725111243</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>51.80401084706395</v>
       </c>
       <c r="S38" t="n">
-        <v>64.99933091338119</v>
+        <v>173.1991729621715</v>
       </c>
       <c r="T38" t="n">
         <v>216.6899906345822</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.3630839363509</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>143.0682242149662</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25572,7 +25572,7 @@
         <v>134.4212799679311</v>
       </c>
       <c r="J40" t="n">
-        <v>43.37756193720835</v>
+        <v>43.37756193720834</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>25.91681693562112</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>201.2675816975154</v>
+        <v>286.0171967511075</v>
       </c>
       <c r="V40" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
-        <v>286.0925768874155</v>
+        <v>175.4261448982022</v>
       </c>
       <c r="X40" t="n">
         <v>226.1403599323093</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>161.0413174650575</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
-        <v>383.1180357552875</v>
+        <v>270.8080528645883</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25675,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>51.80401084706396</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.6899906345822</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3630839363509</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.6870717512358</v>
@@ -25797,19 +25797,19 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F43" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.2465721975682</v>
       </c>
       <c r="H43" t="n">
-        <v>61.10995647818534</v>
+        <v>155.9170686959712</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>134.4212799679311</v>
       </c>
       <c r="J43" t="n">
-        <v>43.37756193720835</v>
+        <v>43.37756193720834</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,25 +25830,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>25.91681693562112</v>
       </c>
       <c r="R43" t="n">
         <v>144.4787771321248</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>211.15137899525</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.5850308615645</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0171967511075</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W43" t="n">
-        <v>286.0925768874155</v>
+        <v>26.38717607017492</v>
       </c>
       <c r="X43" t="n">
         <v>226.1403599323093</v>
@@ -25873,19 +25873,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>383.1180357552875</v>
+        <v>323.5679095679309</v>
       </c>
       <c r="F44" t="n">
-        <v>150.264858378895</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.4212699014121</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.4631175740071</v>
       </c>
       <c r="I44" t="n">
-        <v>149.9594725111243</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>51.80401084706395</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -25927,10 +25927,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26028,25 +26028,25 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D46" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>167.2465721975682</v>
+        <v>57.43772079454958</v>
       </c>
       <c r="H46" t="n">
-        <v>137.410277503796</v>
+        <v>155.9170686959712</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.4212799679311</v>
       </c>
       <c r="J46" t="n">
-        <v>43.37756193720835</v>
+        <v>43.37756193720834</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>25.91681693562113</v>
+        <v>25.91681693562112</v>
       </c>
       <c r="R46" t="n">
         <v>144.4787771321248</v>
@@ -26079,13 +26079,13 @@
         <v>225.5850308615645</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.0171967511075</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>226.1403599323093</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>657715.0398361039</v>
+        <v>657715.0398361038</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>665791.2596176208</v>
+        <v>665791.2596176207</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>665791.2596176208</v>
+        <v>665791.2596176207</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>649725.1022045923</v>
+        <v>649725.1022045925</v>
       </c>
       <c r="C2" t="n">
-        <v>649725.1022045923</v>
+        <v>649725.1022045925</v>
       </c>
       <c r="D2" t="n">
-        <v>649725.1022045927</v>
+        <v>649725.1022045925</v>
       </c>
       <c r="E2" t="n">
         <v>455733.4999883798</v>
       </c>
       <c r="F2" t="n">
+        <v>455733.4999883798</v>
+      </c>
+      <c r="G2" t="n">
         <v>455733.4999883799</v>
-      </c>
-      <c r="G2" t="n">
-        <v>455733.4999883798</v>
       </c>
       <c r="H2" t="n">
         <v>455733.4999883799</v>
       </c>
       <c r="I2" t="n">
+        <v>460774.8403378691</v>
+      </c>
+      <c r="J2" t="n">
+        <v>460774.840337869</v>
+      </c>
+      <c r="K2" t="n">
         <v>460774.8403378692</v>
-      </c>
-      <c r="J2" t="n">
-        <v>460774.8403378691</v>
-      </c>
-      <c r="K2" t="n">
-        <v>460774.8403378693</v>
       </c>
       <c r="L2" t="n">
         <v>460774.8403378691</v>
       </c>
       <c r="M2" t="n">
-        <v>455733.4999883798</v>
+        <v>455733.4999883799</v>
       </c>
       <c r="N2" t="n">
         <v>455733.4999883799</v>
       </c>
       <c r="O2" t="n">
-        <v>455733.4999883797</v>
+        <v>455733.4999883798</v>
       </c>
       <c r="P2" t="n">
-        <v>455733.4999883799</v>
+        <v>455733.4999883796</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>161371.8414740254</v>
+        <v>161371.8414740255</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>411400.6963116435</v>
       </c>
       <c r="E4" t="n">
-        <v>117040.9217893068</v>
+        <v>117040.9217893067</v>
       </c>
       <c r="F4" t="n">
-        <v>117040.9217893068</v>
+        <v>117040.9217893067</v>
       </c>
       <c r="G4" t="n">
         <v>117040.9217893067</v>
@@ -26438,10 +26438,10 @@
         <v>117040.9217893067</v>
       </c>
       <c r="I4" t="n">
+        <v>119140.1943432658</v>
+      </c>
+      <c r="J4" t="n">
         <v>119140.1943432659</v>
-      </c>
-      <c r="J4" t="n">
-        <v>119140.1943432658</v>
       </c>
       <c r="K4" t="n">
         <v>119140.1943432658</v>
@@ -26450,10 +26450,10 @@
         <v>119140.1943432658</v>
       </c>
       <c r="M4" t="n">
-        <v>117040.9217893068</v>
+        <v>117040.9217893067</v>
       </c>
       <c r="N4" t="n">
-        <v>117040.9217893068</v>
+        <v>117040.9217893067</v>
       </c>
       <c r="O4" t="n">
         <v>117040.9217893067</v>
@@ -26508,10 +26508,10 @@
         <v>48384.7726350282</v>
       </c>
       <c r="O5" t="n">
-        <v>48384.77263502818</v>
+        <v>48384.7726350282</v>
       </c>
       <c r="P5" t="n">
-        <v>48384.77263502818</v>
+        <v>48384.7726350282</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>204696.8058929489</v>
+        <v>204652.7301214692</v>
       </c>
       <c r="C6" t="n">
-        <v>204696.8058929489</v>
+        <v>204652.7301214691</v>
       </c>
       <c r="D6" t="n">
-        <v>204696.8058929492</v>
+        <v>204652.7301214692</v>
       </c>
       <c r="E6" t="n">
-        <v>-195606.0542782177</v>
+        <v>-201712.3676189541</v>
       </c>
       <c r="F6" t="n">
-        <v>290307.8055640449</v>
+        <v>284201.4922233083</v>
       </c>
       <c r="G6" t="n">
-        <v>290307.8055640449</v>
+        <v>284201.4922233084</v>
       </c>
       <c r="H6" t="n">
-        <v>290307.805564045</v>
+        <v>284201.4922233084</v>
       </c>
       <c r="I6" t="n">
-        <v>286584.8948763826</v>
+        <v>280636.1234215675</v>
       </c>
       <c r="J6" t="n">
-        <v>292009.5775359882</v>
+        <v>286060.8060811732</v>
       </c>
       <c r="K6" t="n">
-        <v>292009.5775359885</v>
+        <v>286060.8060811734</v>
       </c>
       <c r="L6" t="n">
-        <v>292009.5775359882</v>
+        <v>286060.8060811732</v>
       </c>
       <c r="M6" t="n">
-        <v>128935.9640900196</v>
+        <v>122829.6507492829</v>
       </c>
       <c r="N6" t="n">
-        <v>290307.805564045</v>
+        <v>284201.4922233084</v>
       </c>
       <c r="O6" t="n">
-        <v>290307.8055640449</v>
+        <v>284201.4922233083</v>
       </c>
       <c r="P6" t="n">
-        <v>290307.805564045</v>
+        <v>284201.4922233081</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>356.5820062266691</v>
+        <v>356.5820062266693</v>
       </c>
       <c r="F3" t="n">
-        <v>356.5820062266692</v>
+        <v>356.5820062266693</v>
       </c>
       <c r="G3" t="n">
-        <v>356.5820062266692</v>
+        <v>356.5820062266693</v>
       </c>
       <c r="H3" t="n">
-        <v>356.5820062266692</v>
+        <v>356.5820062266693</v>
       </c>
       <c r="I3" t="n">
-        <v>356.5820062266692</v>
+        <v>356.5820062266693</v>
       </c>
       <c r="J3" t="n">
-        <v>356.5820062266692</v>
+        <v>356.5820062266693</v>
       </c>
       <c r="K3" t="n">
-        <v>356.5820062266692</v>
+        <v>356.5820062266693</v>
       </c>
       <c r="L3" t="n">
-        <v>356.5820062266692</v>
+        <v>356.5820062266693</v>
       </c>
       <c r="M3" t="n">
-        <v>356.5820062266692</v>
+        <v>356.5820062266693</v>
       </c>
       <c r="N3" t="n">
-        <v>356.5820062266692</v>
+        <v>356.5820062266693</v>
       </c>
       <c r="O3" t="n">
-        <v>356.5820062266692</v>
+        <v>356.5820062266693</v>
       </c>
       <c r="P3" t="n">
-        <v>356.5820062266692</v>
+        <v>356.5820062266693</v>
       </c>
     </row>
     <row r="4">
@@ -26798,10 +26798,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>667.9487647909016</v>
+        <v>667.9487647909015</v>
       </c>
       <c r="F4" t="n">
-        <v>667.9487647909016</v>
+        <v>667.9487647909015</v>
       </c>
       <c r="G4" t="n">
         <v>667.9487647909015</v>
@@ -26828,10 +26828,10 @@
         <v>667.9487647909015</v>
       </c>
       <c r="O4" t="n">
-        <v>667.9487647909012</v>
+        <v>667.9487647909015</v>
       </c>
       <c r="P4" t="n">
-        <v>667.9487647909012</v>
+        <v>667.9487647909015</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>356.5820062266691</v>
+        <v>356.5820062266693</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>667.9487647909016</v>
+        <v>667.9487647909012</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>647.5491624292763</v>
+        <v>647.5491624292766</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>667.9487647909016</v>
+        <v>667.9487647909012</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.433495502418769</v>
+        <v>1.43349550241877</v>
       </c>
       <c r="H11" t="n">
-        <v>14.68078581414622</v>
+        <v>14.68078581414623</v>
       </c>
       <c r="I11" t="n">
-        <v>55.26483535699965</v>
+        <v>55.26483535699968</v>
       </c>
       <c r="J11" t="n">
-        <v>121.6661388984151</v>
+        <v>121.6661388984152</v>
       </c>
       <c r="K11" t="n">
         <v>182.3460035158017</v>
       </c>
       <c r="L11" t="n">
-        <v>226.2163414979501</v>
+        <v>226.2163414979502</v>
       </c>
       <c r="M11" t="n">
-        <v>251.7092671390899</v>
+        <v>251.70926713909</v>
       </c>
       <c r="N11" t="n">
         <v>255.7821862353373</v>
       </c>
       <c r="O11" t="n">
-        <v>241.5278653331606</v>
+        <v>241.5278653331607</v>
       </c>
       <c r="P11" t="n">
-        <v>206.1384451171972</v>
+        <v>206.1384451171973</v>
       </c>
       <c r="Q11" t="n">
         <v>154.801387436825</v>
       </c>
       <c r="R11" t="n">
-        <v>90.0468118538131</v>
+        <v>90.04681185381313</v>
       </c>
       <c r="S11" t="n">
-        <v>32.66577876136774</v>
+        <v>32.66577876136775</v>
       </c>
       <c r="T11" t="n">
-        <v>6.275126561838166</v>
+        <v>6.275126561838168</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1146796401935015</v>
+        <v>0.1146796401935016</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7669877115064204</v>
+        <v>0.7669877115064206</v>
       </c>
       <c r="H12" t="n">
-        <v>7.40748658218043</v>
+        <v>7.407486582180432</v>
       </c>
       <c r="I12" t="n">
         <v>26.40725234791843</v>
       </c>
       <c r="J12" t="n">
-        <v>72.46351883140265</v>
+        <v>72.46351883140268</v>
       </c>
       <c r="K12" t="n">
-        <v>123.8516955023328</v>
+        <v>123.8516955023329</v>
       </c>
       <c r="L12" t="n">
         <v>166.533888851427</v>
       </c>
       <c r="M12" t="n">
-        <v>194.3371933935346</v>
+        <v>194.3371933935347</v>
       </c>
       <c r="N12" t="n">
-        <v>199.4807206342948</v>
+        <v>199.4807206342949</v>
       </c>
       <c r="O12" t="n">
         <v>182.4858876582842</v>
       </c>
       <c r="P12" t="n">
-        <v>146.4610130858181</v>
+        <v>146.4610130858182</v>
       </c>
       <c r="Q12" t="n">
-        <v>97.90530857755641</v>
+        <v>97.90530857755644</v>
       </c>
       <c r="R12" t="n">
-        <v>47.62051773721443</v>
+        <v>47.62051773721446</v>
       </c>
       <c r="S12" t="n">
         <v>14.24646034311267</v>
       </c>
       <c r="T12" t="n">
-        <v>3.091498714361404</v>
+        <v>3.091498714361405</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05045971786226452</v>
+        <v>0.05045971786226454</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6430167325398951</v>
+        <v>0.6430167325398953</v>
       </c>
       <c r="H13" t="n">
-        <v>5.717003312945617</v>
+        <v>5.717003312945619</v>
       </c>
       <c r="I13" t="n">
         <v>19.33726682947249</v>
       </c>
       <c r="J13" t="n">
-        <v>45.46128299057058</v>
+        <v>45.4612829905706</v>
       </c>
       <c r="K13" t="n">
-        <v>74.70685310781688</v>
+        <v>74.70685310781691</v>
       </c>
       <c r="L13" t="n">
-        <v>95.59905130870406</v>
+        <v>95.59905130870409</v>
       </c>
       <c r="M13" t="n">
         <v>100.7957956289583</v>
       </c>
       <c r="N13" t="n">
-        <v>98.39909689858239</v>
+        <v>98.39909689858241</v>
       </c>
       <c r="O13" t="n">
-        <v>90.88749234118448</v>
+        <v>90.88749234118451</v>
       </c>
       <c r="P13" t="n">
-        <v>77.76995099737056</v>
+        <v>77.76995099737057</v>
       </c>
       <c r="Q13" t="n">
-        <v>53.84388294022704</v>
+        <v>53.84388294022705</v>
       </c>
       <c r="R13" t="n">
-        <v>28.91237053765746</v>
+        <v>28.91237053765747</v>
       </c>
       <c r="S13" t="n">
         <v>11.20602796617253</v>
       </c>
       <c r="T13" t="n">
-        <v>2.747435129943188</v>
+        <v>2.747435129943189</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03507363995672159</v>
+        <v>0.0350736399567216</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.433495502418769</v>
+        <v>1.43349550241877</v>
       </c>
       <c r="H14" t="n">
         <v>14.68078581414623</v>
       </c>
       <c r="I14" t="n">
-        <v>55.26483535699967</v>
+        <v>55.26483535699968</v>
       </c>
       <c r="J14" t="n">
         <v>121.6661388984152</v>
@@ -32007,13 +32007,13 @@
         <v>226.2163414979502</v>
       </c>
       <c r="M14" t="n">
-        <v>251.7092671390899</v>
+        <v>251.70926713909</v>
       </c>
       <c r="N14" t="n">
         <v>255.7821862353373</v>
       </c>
       <c r="O14" t="n">
-        <v>241.5278653331606</v>
+        <v>241.5278653331607</v>
       </c>
       <c r="P14" t="n">
         <v>206.1384451171973</v>
@@ -32022,16 +32022,16 @@
         <v>154.801387436825</v>
       </c>
       <c r="R14" t="n">
-        <v>90.04681185381311</v>
+        <v>90.04681185381313</v>
       </c>
       <c r="S14" t="n">
         <v>32.66577876136775</v>
       </c>
       <c r="T14" t="n">
-        <v>6.275126561838167</v>
+        <v>6.275126561838168</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1146796401935015</v>
+        <v>0.1146796401935016</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7669877115064205</v>
+        <v>0.7669877115064206</v>
       </c>
       <c r="H15" t="n">
-        <v>7.407486582180431</v>
+        <v>7.407486582180432</v>
       </c>
       <c r="I15" t="n">
         <v>26.40725234791843</v>
       </c>
       <c r="J15" t="n">
-        <v>72.46351883140267</v>
+        <v>72.46351883140268</v>
       </c>
       <c r="K15" t="n">
-        <v>123.8516955023328</v>
+        <v>123.8516955023329</v>
       </c>
       <c r="L15" t="n">
         <v>166.533888851427</v>
@@ -32098,19 +32098,19 @@
         <v>146.4610130858182</v>
       </c>
       <c r="Q15" t="n">
-        <v>97.90530857755643</v>
+        <v>97.90530857755644</v>
       </c>
       <c r="R15" t="n">
-        <v>47.62051773721444</v>
+        <v>47.62051773721446</v>
       </c>
       <c r="S15" t="n">
         <v>14.24646034311267</v>
       </c>
       <c r="T15" t="n">
-        <v>3.091498714361404</v>
+        <v>3.091498714361405</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05045971786226453</v>
+        <v>0.05045971786226454</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,31 +32147,31 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6430167325398952</v>
+        <v>0.6430167325398953</v>
       </c>
       <c r="H16" t="n">
-        <v>5.717003312945618</v>
+        <v>5.717003312945619</v>
       </c>
       <c r="I16" t="n">
         <v>19.33726682947249</v>
       </c>
       <c r="J16" t="n">
-        <v>45.46128299057059</v>
+        <v>45.4612829905706</v>
       </c>
       <c r="K16" t="n">
-        <v>74.7068531078169</v>
+        <v>74.70685310781691</v>
       </c>
       <c r="L16" t="n">
-        <v>95.59905130870408</v>
+        <v>95.59905130870409</v>
       </c>
       <c r="M16" t="n">
         <v>100.7957956289583</v>
       </c>
       <c r="N16" t="n">
-        <v>98.3990968985824</v>
+        <v>98.39909689858241</v>
       </c>
       <c r="O16" t="n">
-        <v>90.8874923411845</v>
+        <v>90.88749234118451</v>
       </c>
       <c r="P16" t="n">
         <v>77.76995099737057</v>
@@ -32180,16 +32180,16 @@
         <v>53.84388294022705</v>
       </c>
       <c r="R16" t="n">
-        <v>28.91237053765746</v>
+        <v>28.91237053765747</v>
       </c>
       <c r="S16" t="n">
         <v>11.20602796617253</v>
       </c>
       <c r="T16" t="n">
-        <v>2.747435129943188</v>
+        <v>2.747435129943189</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03507363995672159</v>
+        <v>0.0350736399567216</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.433495502418769</v>
+        <v>1.43349550241877</v>
       </c>
       <c r="H17" t="n">
         <v>14.68078581414623</v>
       </c>
       <c r="I17" t="n">
-        <v>55.26483535699967</v>
+        <v>55.26483535699968</v>
       </c>
       <c r="J17" t="n">
         <v>121.6661388984152</v>
@@ -32244,13 +32244,13 @@
         <v>226.2163414979502</v>
       </c>
       <c r="M17" t="n">
-        <v>251.7092671390899</v>
+        <v>251.70926713909</v>
       </c>
       <c r="N17" t="n">
         <v>255.7821862353373</v>
       </c>
       <c r="O17" t="n">
-        <v>241.5278653331606</v>
+        <v>241.5278653331607</v>
       </c>
       <c r="P17" t="n">
         <v>206.1384451171973</v>
@@ -32259,16 +32259,16 @@
         <v>154.801387436825</v>
       </c>
       <c r="R17" t="n">
-        <v>90.04681185381311</v>
+        <v>90.04681185381313</v>
       </c>
       <c r="S17" t="n">
         <v>32.66577876136775</v>
       </c>
       <c r="T17" t="n">
-        <v>6.275126561838167</v>
+        <v>6.275126561838168</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1146796401935015</v>
+        <v>0.1146796401935016</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7669877115064205</v>
+        <v>0.7669877115064206</v>
       </c>
       <c r="H18" t="n">
-        <v>7.407486582180431</v>
+        <v>7.407486582180432</v>
       </c>
       <c r="I18" t="n">
         <v>26.40725234791843</v>
       </c>
       <c r="J18" t="n">
-        <v>72.46351883140267</v>
+        <v>72.46351883140268</v>
       </c>
       <c r="K18" t="n">
-        <v>123.8516955023328</v>
+        <v>123.8516955023329</v>
       </c>
       <c r="L18" t="n">
         <v>166.533888851427</v>
@@ -32335,19 +32335,19 @@
         <v>146.4610130858182</v>
       </c>
       <c r="Q18" t="n">
-        <v>97.90530857755643</v>
+        <v>97.90530857755644</v>
       </c>
       <c r="R18" t="n">
-        <v>47.62051773721444</v>
+        <v>47.62051773721446</v>
       </c>
       <c r="S18" t="n">
         <v>14.24646034311267</v>
       </c>
       <c r="T18" t="n">
-        <v>3.091498714361404</v>
+        <v>3.091498714361405</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05045971786226453</v>
+        <v>0.05045971786226454</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,31 +32384,31 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6430167325398952</v>
+        <v>0.6430167325398953</v>
       </c>
       <c r="H19" t="n">
-        <v>5.717003312945618</v>
+        <v>5.717003312945619</v>
       </c>
       <c r="I19" t="n">
         <v>19.33726682947249</v>
       </c>
       <c r="J19" t="n">
-        <v>45.46128299057059</v>
+        <v>45.4612829905706</v>
       </c>
       <c r="K19" t="n">
-        <v>74.7068531078169</v>
+        <v>74.70685310781691</v>
       </c>
       <c r="L19" t="n">
-        <v>95.59905130870408</v>
+        <v>95.59905130870409</v>
       </c>
       <c r="M19" t="n">
         <v>100.7957956289583</v>
       </c>
       <c r="N19" t="n">
-        <v>98.3990968985824</v>
+        <v>98.39909689858241</v>
       </c>
       <c r="O19" t="n">
-        <v>90.8874923411845</v>
+        <v>90.88749234118451</v>
       </c>
       <c r="P19" t="n">
         <v>77.76995099737057</v>
@@ -32417,16 +32417,16 @@
         <v>53.84388294022705</v>
       </c>
       <c r="R19" t="n">
-        <v>28.91237053765746</v>
+        <v>28.91237053765747</v>
       </c>
       <c r="S19" t="n">
         <v>11.20602796617253</v>
       </c>
       <c r="T19" t="n">
-        <v>2.747435129943188</v>
+        <v>2.747435129943189</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03507363995672159</v>
+        <v>0.0350736399567216</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.433495502418769</v>
+        <v>1.43349550241877</v>
       </c>
       <c r="H20" t="n">
         <v>14.68078581414623</v>
       </c>
       <c r="I20" t="n">
-        <v>55.26483535699967</v>
+        <v>55.26483535699968</v>
       </c>
       <c r="J20" t="n">
         <v>121.6661388984152</v>
@@ -32481,13 +32481,13 @@
         <v>226.2163414979502</v>
       </c>
       <c r="M20" t="n">
-        <v>251.7092671390899</v>
+        <v>251.70926713909</v>
       </c>
       <c r="N20" t="n">
         <v>255.7821862353373</v>
       </c>
       <c r="O20" t="n">
-        <v>241.5278653331606</v>
+        <v>241.5278653331607</v>
       </c>
       <c r="P20" t="n">
         <v>206.1384451171973</v>
@@ -32496,16 +32496,16 @@
         <v>154.801387436825</v>
       </c>
       <c r="R20" t="n">
-        <v>90.04681185381311</v>
+        <v>90.04681185381313</v>
       </c>
       <c r="S20" t="n">
         <v>32.66577876136775</v>
       </c>
       <c r="T20" t="n">
-        <v>6.275126561838167</v>
+        <v>6.275126561838168</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1146796401935015</v>
+        <v>0.1146796401935016</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7669877115064205</v>
+        <v>0.7669877115064206</v>
       </c>
       <c r="H21" t="n">
-        <v>7.407486582180431</v>
+        <v>7.407486582180432</v>
       </c>
       <c r="I21" t="n">
         <v>26.40725234791843</v>
       </c>
       <c r="J21" t="n">
-        <v>72.46351883140267</v>
+        <v>72.46351883140268</v>
       </c>
       <c r="K21" t="n">
-        <v>123.8516955023328</v>
+        <v>123.8516955023329</v>
       </c>
       <c r="L21" t="n">
         <v>166.533888851427</v>
@@ -32572,19 +32572,19 @@
         <v>146.4610130858182</v>
       </c>
       <c r="Q21" t="n">
-        <v>97.90530857755643</v>
+        <v>97.90530857755644</v>
       </c>
       <c r="R21" t="n">
-        <v>47.62051773721444</v>
+        <v>47.62051773721446</v>
       </c>
       <c r="S21" t="n">
         <v>14.24646034311267</v>
       </c>
       <c r="T21" t="n">
-        <v>3.091498714361404</v>
+        <v>3.091498714361405</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05045971786226453</v>
+        <v>0.05045971786226454</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,31 +32621,31 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6430167325398952</v>
+        <v>0.6430167325398953</v>
       </c>
       <c r="H22" t="n">
-        <v>5.717003312945618</v>
+        <v>5.717003312945619</v>
       </c>
       <c r="I22" t="n">
         <v>19.33726682947249</v>
       </c>
       <c r="J22" t="n">
-        <v>45.46128299057059</v>
+        <v>45.4612829905706</v>
       </c>
       <c r="K22" t="n">
-        <v>74.7068531078169</v>
+        <v>74.70685310781691</v>
       </c>
       <c r="L22" t="n">
-        <v>95.59905130870408</v>
+        <v>95.59905130870409</v>
       </c>
       <c r="M22" t="n">
         <v>100.7957956289583</v>
       </c>
       <c r="N22" t="n">
-        <v>98.3990968985824</v>
+        <v>98.39909689858241</v>
       </c>
       <c r="O22" t="n">
-        <v>90.8874923411845</v>
+        <v>90.88749234118451</v>
       </c>
       <c r="P22" t="n">
         <v>77.76995099737057</v>
@@ -32654,16 +32654,16 @@
         <v>53.84388294022705</v>
       </c>
       <c r="R22" t="n">
-        <v>28.91237053765746</v>
+        <v>28.91237053765747</v>
       </c>
       <c r="S22" t="n">
         <v>11.20602796617253</v>
       </c>
       <c r="T22" t="n">
-        <v>2.747435129943188</v>
+        <v>2.747435129943189</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03507363995672159</v>
+        <v>0.0350736399567216</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.433495502418769</v>
+        <v>1.43349550241877</v>
       </c>
       <c r="H23" t="n">
         <v>14.68078581414623</v>
       </c>
       <c r="I23" t="n">
-        <v>55.26483535699967</v>
+        <v>55.26483535699968</v>
       </c>
       <c r="J23" t="n">
         <v>121.6661388984152</v>
@@ -32718,13 +32718,13 @@
         <v>226.2163414979502</v>
       </c>
       <c r="M23" t="n">
-        <v>251.7092671390899</v>
+        <v>251.70926713909</v>
       </c>
       <c r="N23" t="n">
         <v>255.7821862353373</v>
       </c>
       <c r="O23" t="n">
-        <v>241.5278653331606</v>
+        <v>241.5278653331607</v>
       </c>
       <c r="P23" t="n">
         <v>206.1384451171973</v>
@@ -32733,16 +32733,16 @@
         <v>154.801387436825</v>
       </c>
       <c r="R23" t="n">
-        <v>90.04681185381311</v>
+        <v>90.04681185381313</v>
       </c>
       <c r="S23" t="n">
         <v>32.66577876136775</v>
       </c>
       <c r="T23" t="n">
-        <v>6.275126561838167</v>
+        <v>6.275126561838168</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1146796401935015</v>
+        <v>0.1146796401935016</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7669877115064205</v>
+        <v>0.7669877115064206</v>
       </c>
       <c r="H24" t="n">
-        <v>7.407486582180431</v>
+        <v>7.407486582180432</v>
       </c>
       <c r="I24" t="n">
         <v>26.40725234791843</v>
       </c>
       <c r="J24" t="n">
-        <v>72.46351883140267</v>
+        <v>72.46351883140268</v>
       </c>
       <c r="K24" t="n">
-        <v>123.8516955023328</v>
+        <v>123.8516955023329</v>
       </c>
       <c r="L24" t="n">
         <v>166.533888851427</v>
@@ -32809,19 +32809,19 @@
         <v>146.4610130858182</v>
       </c>
       <c r="Q24" t="n">
-        <v>97.90530857755643</v>
+        <v>97.90530857755644</v>
       </c>
       <c r="R24" t="n">
-        <v>47.62051773721444</v>
+        <v>47.62051773721446</v>
       </c>
       <c r="S24" t="n">
         <v>14.24646034311267</v>
       </c>
       <c r="T24" t="n">
-        <v>3.091498714361404</v>
+        <v>3.091498714361405</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05045971786226453</v>
+        <v>0.05045971786226454</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,31 +32858,31 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6430167325398952</v>
+        <v>0.6430167325398953</v>
       </c>
       <c r="H25" t="n">
-        <v>5.717003312945618</v>
+        <v>5.717003312945619</v>
       </c>
       <c r="I25" t="n">
         <v>19.33726682947249</v>
       </c>
       <c r="J25" t="n">
-        <v>45.46128299057059</v>
+        <v>45.4612829905706</v>
       </c>
       <c r="K25" t="n">
-        <v>74.7068531078169</v>
+        <v>74.70685310781691</v>
       </c>
       <c r="L25" t="n">
-        <v>95.59905130870408</v>
+        <v>95.59905130870409</v>
       </c>
       <c r="M25" t="n">
         <v>100.7957956289583</v>
       </c>
       <c r="N25" t="n">
-        <v>98.3990968985824</v>
+        <v>98.39909689858241</v>
       </c>
       <c r="O25" t="n">
-        <v>90.8874923411845</v>
+        <v>90.88749234118451</v>
       </c>
       <c r="P25" t="n">
         <v>77.76995099737057</v>
@@ -32891,16 +32891,16 @@
         <v>53.84388294022705</v>
       </c>
       <c r="R25" t="n">
-        <v>28.91237053765746</v>
+        <v>28.91237053765747</v>
       </c>
       <c r="S25" t="n">
         <v>11.20602796617253</v>
       </c>
       <c r="T25" t="n">
-        <v>2.747435129943188</v>
+        <v>2.747435129943189</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03507363995672159</v>
+        <v>0.0350736399567216</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.433495502418769</v>
+        <v>1.43349550241877</v>
       </c>
       <c r="H26" t="n">
         <v>14.68078581414623</v>
       </c>
       <c r="I26" t="n">
-        <v>55.26483535699967</v>
+        <v>55.26483535699968</v>
       </c>
       <c r="J26" t="n">
         <v>121.6661388984152</v>
@@ -32955,13 +32955,13 @@
         <v>226.2163414979502</v>
       </c>
       <c r="M26" t="n">
-        <v>251.7092671390899</v>
+        <v>251.70926713909</v>
       </c>
       <c r="N26" t="n">
         <v>255.7821862353373</v>
       </c>
       <c r="O26" t="n">
-        <v>241.5278653331606</v>
+        <v>241.5278653331607</v>
       </c>
       <c r="P26" t="n">
         <v>206.1384451171973</v>
@@ -32970,16 +32970,16 @@
         <v>154.801387436825</v>
       </c>
       <c r="R26" t="n">
-        <v>90.04681185381311</v>
+        <v>90.04681185381313</v>
       </c>
       <c r="S26" t="n">
         <v>32.66577876136775</v>
       </c>
       <c r="T26" t="n">
-        <v>6.275126561838167</v>
+        <v>6.275126561838168</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1146796401935015</v>
+        <v>0.1146796401935016</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7669877115064205</v>
+        <v>0.7669877115064206</v>
       </c>
       <c r="H27" t="n">
-        <v>7.407486582180431</v>
+        <v>7.407486582180432</v>
       </c>
       <c r="I27" t="n">
         <v>26.40725234791843</v>
       </c>
       <c r="J27" t="n">
-        <v>72.46351883140267</v>
+        <v>72.46351883140268</v>
       </c>
       <c r="K27" t="n">
-        <v>123.8516955023328</v>
+        <v>123.8516955023329</v>
       </c>
       <c r="L27" t="n">
         <v>166.533888851427</v>
@@ -33046,19 +33046,19 @@
         <v>146.4610130858182</v>
       </c>
       <c r="Q27" t="n">
-        <v>97.90530857755643</v>
+        <v>97.90530857755644</v>
       </c>
       <c r="R27" t="n">
-        <v>47.62051773721444</v>
+        <v>47.62051773721446</v>
       </c>
       <c r="S27" t="n">
         <v>14.24646034311267</v>
       </c>
       <c r="T27" t="n">
-        <v>3.091498714361404</v>
+        <v>3.091498714361405</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05045971786226453</v>
+        <v>0.05045971786226454</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,31 +33095,31 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6430167325398952</v>
+        <v>0.6430167325398953</v>
       </c>
       <c r="H28" t="n">
-        <v>5.717003312945618</v>
+        <v>5.717003312945619</v>
       </c>
       <c r="I28" t="n">
         <v>19.33726682947249</v>
       </c>
       <c r="J28" t="n">
-        <v>45.46128299057059</v>
+        <v>45.4612829905706</v>
       </c>
       <c r="K28" t="n">
-        <v>74.7068531078169</v>
+        <v>74.70685310781691</v>
       </c>
       <c r="L28" t="n">
-        <v>95.59905130870408</v>
+        <v>95.59905130870409</v>
       </c>
       <c r="M28" t="n">
         <v>100.7957956289583</v>
       </c>
       <c r="N28" t="n">
-        <v>98.3990968985824</v>
+        <v>98.39909689858241</v>
       </c>
       <c r="O28" t="n">
-        <v>90.8874923411845</v>
+        <v>90.88749234118451</v>
       </c>
       <c r="P28" t="n">
         <v>77.76995099737057</v>
@@ -33128,16 +33128,16 @@
         <v>53.84388294022705</v>
       </c>
       <c r="R28" t="n">
-        <v>28.91237053765746</v>
+        <v>28.91237053765747</v>
       </c>
       <c r="S28" t="n">
         <v>11.20602796617253</v>
       </c>
       <c r="T28" t="n">
-        <v>2.747435129943188</v>
+        <v>2.747435129943189</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03507363995672159</v>
+        <v>0.0350736399567216</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.433495502418769</v>
+        <v>1.43349550241877</v>
       </c>
       <c r="H29" t="n">
         <v>14.68078581414623</v>
       </c>
       <c r="I29" t="n">
-        <v>55.26483535699967</v>
+        <v>55.26483535699968</v>
       </c>
       <c r="J29" t="n">
         <v>121.6661388984152</v>
@@ -33192,13 +33192,13 @@
         <v>226.2163414979502</v>
       </c>
       <c r="M29" t="n">
-        <v>251.7092671390899</v>
+        <v>251.70926713909</v>
       </c>
       <c r="N29" t="n">
         <v>255.7821862353373</v>
       </c>
       <c r="O29" t="n">
-        <v>241.5278653331606</v>
+        <v>241.5278653331607</v>
       </c>
       <c r="P29" t="n">
         <v>206.1384451171973</v>
@@ -33207,16 +33207,16 @@
         <v>154.801387436825</v>
       </c>
       <c r="R29" t="n">
-        <v>90.04681185381311</v>
+        <v>90.04681185381313</v>
       </c>
       <c r="S29" t="n">
         <v>32.66577876136775</v>
       </c>
       <c r="T29" t="n">
-        <v>6.275126561838167</v>
+        <v>6.275126561838168</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1146796401935015</v>
+        <v>0.1146796401935016</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7669877115064205</v>
+        <v>0.7669877115064206</v>
       </c>
       <c r="H30" t="n">
-        <v>7.407486582180431</v>
+        <v>7.407486582180432</v>
       </c>
       <c r="I30" t="n">
         <v>26.40725234791843</v>
       </c>
       <c r="J30" t="n">
-        <v>72.46351883140267</v>
+        <v>72.46351883140268</v>
       </c>
       <c r="K30" t="n">
-        <v>123.8516955023328</v>
+        <v>123.8516955023329</v>
       </c>
       <c r="L30" t="n">
         <v>166.533888851427</v>
@@ -33283,19 +33283,19 @@
         <v>146.4610130858182</v>
       </c>
       <c r="Q30" t="n">
-        <v>97.90530857755643</v>
+        <v>97.90530857755644</v>
       </c>
       <c r="R30" t="n">
-        <v>47.62051773721444</v>
+        <v>47.62051773721446</v>
       </c>
       <c r="S30" t="n">
         <v>14.24646034311267</v>
       </c>
       <c r="T30" t="n">
-        <v>3.091498714361404</v>
+        <v>3.091498714361405</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05045971786226453</v>
+        <v>0.05045971786226454</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,31 +33332,31 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6430167325398952</v>
+        <v>0.6430167325398953</v>
       </c>
       <c r="H31" t="n">
-        <v>5.717003312945618</v>
+        <v>5.717003312945619</v>
       </c>
       <c r="I31" t="n">
         <v>19.33726682947249</v>
       </c>
       <c r="J31" t="n">
-        <v>45.46128299057059</v>
+        <v>45.4612829905706</v>
       </c>
       <c r="K31" t="n">
-        <v>74.7068531078169</v>
+        <v>74.70685310781691</v>
       </c>
       <c r="L31" t="n">
-        <v>95.59905130870408</v>
+        <v>95.59905130870409</v>
       </c>
       <c r="M31" t="n">
         <v>100.7957956289583</v>
       </c>
       <c r="N31" t="n">
-        <v>98.3990968985824</v>
+        <v>98.39909689858241</v>
       </c>
       <c r="O31" t="n">
-        <v>90.8874923411845</v>
+        <v>90.88749234118451</v>
       </c>
       <c r="P31" t="n">
         <v>77.76995099737057</v>
@@ -33365,16 +33365,16 @@
         <v>53.84388294022705</v>
       </c>
       <c r="R31" t="n">
-        <v>28.91237053765746</v>
+        <v>28.91237053765747</v>
       </c>
       <c r="S31" t="n">
         <v>11.20602796617253</v>
       </c>
       <c r="T31" t="n">
-        <v>2.747435129943188</v>
+        <v>2.747435129943189</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03507363995672159</v>
+        <v>0.0350736399567216</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.433495502418769</v>
+        <v>1.43349550241877</v>
       </c>
       <c r="H32" t="n">
         <v>14.68078581414623</v>
       </c>
       <c r="I32" t="n">
-        <v>55.26483535699967</v>
+        <v>55.26483535699968</v>
       </c>
       <c r="J32" t="n">
         <v>121.6661388984152</v>
@@ -33429,13 +33429,13 @@
         <v>226.2163414979502</v>
       </c>
       <c r="M32" t="n">
-        <v>251.7092671390899</v>
+        <v>251.70926713909</v>
       </c>
       <c r="N32" t="n">
         <v>255.7821862353373</v>
       </c>
       <c r="O32" t="n">
-        <v>241.5278653331606</v>
+        <v>241.5278653331607</v>
       </c>
       <c r="P32" t="n">
         <v>206.1384451171973</v>
@@ -33444,16 +33444,16 @@
         <v>154.801387436825</v>
       </c>
       <c r="R32" t="n">
-        <v>90.04681185381311</v>
+        <v>90.04681185381313</v>
       </c>
       <c r="S32" t="n">
         <v>32.66577876136775</v>
       </c>
       <c r="T32" t="n">
-        <v>6.275126561838167</v>
+        <v>6.275126561838168</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1146796401935015</v>
+        <v>0.1146796401935016</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7669877115064205</v>
+        <v>0.7669877115064206</v>
       </c>
       <c r="H33" t="n">
-        <v>7.407486582180431</v>
+        <v>7.407486582180432</v>
       </c>
       <c r="I33" t="n">
         <v>26.40725234791843</v>
       </c>
       <c r="J33" t="n">
-        <v>72.46351883140267</v>
+        <v>72.46351883140268</v>
       </c>
       <c r="K33" t="n">
-        <v>123.8516955023328</v>
+        <v>123.8516955023329</v>
       </c>
       <c r="L33" t="n">
         <v>166.533888851427</v>
@@ -33520,19 +33520,19 @@
         <v>146.4610130858182</v>
       </c>
       <c r="Q33" t="n">
-        <v>97.90530857755643</v>
+        <v>97.90530857755644</v>
       </c>
       <c r="R33" t="n">
-        <v>47.62051773721444</v>
+        <v>47.62051773721446</v>
       </c>
       <c r="S33" t="n">
         <v>14.24646034311267</v>
       </c>
       <c r="T33" t="n">
-        <v>3.091498714361404</v>
+        <v>3.091498714361405</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05045971786226453</v>
+        <v>0.05045971786226454</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,31 +33569,31 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6430167325398952</v>
+        <v>0.6430167325398953</v>
       </c>
       <c r="H34" t="n">
-        <v>5.717003312945618</v>
+        <v>5.717003312945619</v>
       </c>
       <c r="I34" t="n">
         <v>19.33726682947249</v>
       </c>
       <c r="J34" t="n">
-        <v>45.46128299057059</v>
+        <v>45.4612829905706</v>
       </c>
       <c r="K34" t="n">
-        <v>74.7068531078169</v>
+        <v>74.70685310781691</v>
       </c>
       <c r="L34" t="n">
-        <v>95.59905130870408</v>
+        <v>95.59905130870409</v>
       </c>
       <c r="M34" t="n">
         <v>100.7957956289583</v>
       </c>
       <c r="N34" t="n">
-        <v>98.3990968985824</v>
+        <v>98.39909689858241</v>
       </c>
       <c r="O34" t="n">
-        <v>90.8874923411845</v>
+        <v>90.88749234118451</v>
       </c>
       <c r="P34" t="n">
         <v>77.76995099737057</v>
@@ -33602,16 +33602,16 @@
         <v>53.84388294022705</v>
       </c>
       <c r="R34" t="n">
-        <v>28.91237053765746</v>
+        <v>28.91237053765747</v>
       </c>
       <c r="S34" t="n">
         <v>11.20602796617253</v>
       </c>
       <c r="T34" t="n">
-        <v>2.747435129943188</v>
+        <v>2.747435129943189</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03507363995672159</v>
+        <v>0.0350736399567216</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.433495502418769</v>
+        <v>1.43349550241877</v>
       </c>
       <c r="H35" t="n">
         <v>14.68078581414623</v>
       </c>
       <c r="I35" t="n">
-        <v>55.26483535699967</v>
+        <v>55.26483535699968</v>
       </c>
       <c r="J35" t="n">
         <v>121.6661388984152</v>
@@ -33666,13 +33666,13 @@
         <v>226.2163414979502</v>
       </c>
       <c r="M35" t="n">
-        <v>251.7092671390899</v>
+        <v>251.70926713909</v>
       </c>
       <c r="N35" t="n">
         <v>255.7821862353373</v>
       </c>
       <c r="O35" t="n">
-        <v>241.5278653331606</v>
+        <v>241.5278653331607</v>
       </c>
       <c r="P35" t="n">
         <v>206.1384451171973</v>
@@ -33681,16 +33681,16 @@
         <v>154.801387436825</v>
       </c>
       <c r="R35" t="n">
-        <v>90.04681185381311</v>
+        <v>90.04681185381313</v>
       </c>
       <c r="S35" t="n">
         <v>32.66577876136775</v>
       </c>
       <c r="T35" t="n">
-        <v>6.275126561838167</v>
+        <v>6.275126561838168</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1146796401935015</v>
+        <v>0.1146796401935016</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7669877115064205</v>
+        <v>0.7669877115064206</v>
       </c>
       <c r="H36" t="n">
-        <v>7.407486582180431</v>
+        <v>7.407486582180432</v>
       </c>
       <c r="I36" t="n">
         <v>26.40725234791843</v>
       </c>
       <c r="J36" t="n">
-        <v>72.46351883140267</v>
+        <v>72.46351883140268</v>
       </c>
       <c r="K36" t="n">
-        <v>123.8516955023328</v>
+        <v>123.8516955023329</v>
       </c>
       <c r="L36" t="n">
         <v>166.533888851427</v>
@@ -33757,19 +33757,19 @@
         <v>146.4610130858182</v>
       </c>
       <c r="Q36" t="n">
-        <v>97.90530857755643</v>
+        <v>97.90530857755644</v>
       </c>
       <c r="R36" t="n">
-        <v>47.62051773721444</v>
+        <v>47.62051773721446</v>
       </c>
       <c r="S36" t="n">
         <v>14.24646034311267</v>
       </c>
       <c r="T36" t="n">
-        <v>3.091498714361404</v>
+        <v>3.091498714361405</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05045971786226453</v>
+        <v>0.05045971786226454</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,31 +33806,31 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6430167325398952</v>
+        <v>0.6430167325398953</v>
       </c>
       <c r="H37" t="n">
-        <v>5.717003312945618</v>
+        <v>5.717003312945619</v>
       </c>
       <c r="I37" t="n">
         <v>19.33726682947249</v>
       </c>
       <c r="J37" t="n">
-        <v>45.46128299057059</v>
+        <v>45.4612829905706</v>
       </c>
       <c r="K37" t="n">
-        <v>74.7068531078169</v>
+        <v>74.70685310781691</v>
       </c>
       <c r="L37" t="n">
-        <v>95.59905130870408</v>
+        <v>95.59905130870409</v>
       </c>
       <c r="M37" t="n">
         <v>100.7957956289583</v>
       </c>
       <c r="N37" t="n">
-        <v>98.3990968985824</v>
+        <v>98.39909689858241</v>
       </c>
       <c r="O37" t="n">
-        <v>90.8874923411845</v>
+        <v>90.88749234118451</v>
       </c>
       <c r="P37" t="n">
         <v>77.76995099737057</v>
@@ -33839,16 +33839,16 @@
         <v>53.84388294022705</v>
       </c>
       <c r="R37" t="n">
-        <v>28.91237053765746</v>
+        <v>28.91237053765747</v>
       </c>
       <c r="S37" t="n">
         <v>11.20602796617253</v>
       </c>
       <c r="T37" t="n">
-        <v>2.747435129943188</v>
+        <v>2.747435129943189</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03507363995672159</v>
+        <v>0.0350736399567216</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.433495502418769</v>
+        <v>1.43349550241877</v>
       </c>
       <c r="H38" t="n">
         <v>14.68078581414623</v>
       </c>
       <c r="I38" t="n">
-        <v>55.26483535699967</v>
+        <v>55.26483535699968</v>
       </c>
       <c r="J38" t="n">
         <v>121.6661388984152</v>
@@ -33903,13 +33903,13 @@
         <v>226.2163414979502</v>
       </c>
       <c r="M38" t="n">
-        <v>251.7092671390899</v>
+        <v>251.70926713909</v>
       </c>
       <c r="N38" t="n">
         <v>255.7821862353373</v>
       </c>
       <c r="O38" t="n">
-        <v>241.5278653331606</v>
+        <v>241.5278653331607</v>
       </c>
       <c r="P38" t="n">
         <v>206.1384451171973</v>
@@ -33918,16 +33918,16 @@
         <v>154.801387436825</v>
       </c>
       <c r="R38" t="n">
-        <v>90.04681185381311</v>
+        <v>90.04681185381313</v>
       </c>
       <c r="S38" t="n">
         <v>32.66577876136775</v>
       </c>
       <c r="T38" t="n">
-        <v>6.275126561838167</v>
+        <v>6.275126561838168</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1146796401935015</v>
+        <v>0.1146796401935016</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7669877115064205</v>
+        <v>0.7669877115064206</v>
       </c>
       <c r="H39" t="n">
-        <v>7.407486582180431</v>
+        <v>7.407486582180432</v>
       </c>
       <c r="I39" t="n">
         <v>26.40725234791843</v>
       </c>
       <c r="J39" t="n">
-        <v>72.46351883140267</v>
+        <v>72.46351883140268</v>
       </c>
       <c r="K39" t="n">
-        <v>123.8516955023328</v>
+        <v>123.8516955023329</v>
       </c>
       <c r="L39" t="n">
         <v>166.533888851427</v>
@@ -33994,19 +33994,19 @@
         <v>146.4610130858182</v>
       </c>
       <c r="Q39" t="n">
-        <v>97.90530857755643</v>
+        <v>97.90530857755644</v>
       </c>
       <c r="R39" t="n">
-        <v>47.62051773721444</v>
+        <v>47.62051773721446</v>
       </c>
       <c r="S39" t="n">
         <v>14.24646034311267</v>
       </c>
       <c r="T39" t="n">
-        <v>3.091498714361404</v>
+        <v>3.091498714361405</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05045971786226453</v>
+        <v>0.05045971786226454</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,31 +34043,31 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6430167325398952</v>
+        <v>0.6430167325398953</v>
       </c>
       <c r="H40" t="n">
-        <v>5.717003312945618</v>
+        <v>5.717003312945619</v>
       </c>
       <c r="I40" t="n">
         <v>19.33726682947249</v>
       </c>
       <c r="J40" t="n">
-        <v>45.46128299057059</v>
+        <v>45.4612829905706</v>
       </c>
       <c r="K40" t="n">
-        <v>74.7068531078169</v>
+        <v>74.70685310781691</v>
       </c>
       <c r="L40" t="n">
-        <v>95.59905130870408</v>
+        <v>95.59905130870409</v>
       </c>
       <c r="M40" t="n">
         <v>100.7957956289583</v>
       </c>
       <c r="N40" t="n">
-        <v>98.3990968985824</v>
+        <v>98.39909689858241</v>
       </c>
       <c r="O40" t="n">
-        <v>90.8874923411845</v>
+        <v>90.88749234118451</v>
       </c>
       <c r="P40" t="n">
         <v>77.76995099737057</v>
@@ -34076,16 +34076,16 @@
         <v>53.84388294022705</v>
       </c>
       <c r="R40" t="n">
-        <v>28.91237053765746</v>
+        <v>28.91237053765747</v>
       </c>
       <c r="S40" t="n">
         <v>11.20602796617253</v>
       </c>
       <c r="T40" t="n">
-        <v>2.747435129943188</v>
+        <v>2.747435129943189</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03507363995672159</v>
+        <v>0.0350736399567216</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.433495502418769</v>
+        <v>1.43349550241877</v>
       </c>
       <c r="H41" t="n">
         <v>14.68078581414623</v>
       </c>
       <c r="I41" t="n">
-        <v>55.26483535699967</v>
+        <v>55.26483535699968</v>
       </c>
       <c r="J41" t="n">
         <v>121.6661388984152</v>
@@ -34140,13 +34140,13 @@
         <v>226.2163414979502</v>
       </c>
       <c r="M41" t="n">
-        <v>251.7092671390899</v>
+        <v>251.70926713909</v>
       </c>
       <c r="N41" t="n">
         <v>255.7821862353373</v>
       </c>
       <c r="O41" t="n">
-        <v>241.5278653331606</v>
+        <v>241.5278653331607</v>
       </c>
       <c r="P41" t="n">
         <v>206.1384451171973</v>
@@ -34155,16 +34155,16 @@
         <v>154.801387436825</v>
       </c>
       <c r="R41" t="n">
-        <v>90.04681185381311</v>
+        <v>90.04681185381313</v>
       </c>
       <c r="S41" t="n">
         <v>32.66577876136775</v>
       </c>
       <c r="T41" t="n">
-        <v>6.275126561838167</v>
+        <v>6.275126561838168</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1146796401935015</v>
+        <v>0.1146796401935016</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7669877115064205</v>
+        <v>0.7669877115064206</v>
       </c>
       <c r="H42" t="n">
-        <v>7.407486582180431</v>
+        <v>7.407486582180432</v>
       </c>
       <c r="I42" t="n">
         <v>26.40725234791843</v>
       </c>
       <c r="J42" t="n">
-        <v>72.46351883140267</v>
+        <v>72.46351883140268</v>
       </c>
       <c r="K42" t="n">
-        <v>123.8516955023328</v>
+        <v>123.8516955023329</v>
       </c>
       <c r="L42" t="n">
         <v>166.533888851427</v>
@@ -34231,19 +34231,19 @@
         <v>146.4610130858182</v>
       </c>
       <c r="Q42" t="n">
-        <v>97.90530857755643</v>
+        <v>97.90530857755644</v>
       </c>
       <c r="R42" t="n">
-        <v>47.62051773721444</v>
+        <v>47.62051773721446</v>
       </c>
       <c r="S42" t="n">
         <v>14.24646034311267</v>
       </c>
       <c r="T42" t="n">
-        <v>3.091498714361404</v>
+        <v>3.091498714361405</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05045971786226453</v>
+        <v>0.05045971786226454</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,31 +34280,31 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6430167325398952</v>
+        <v>0.6430167325398953</v>
       </c>
       <c r="H43" t="n">
-        <v>5.717003312945618</v>
+        <v>5.717003312945619</v>
       </c>
       <c r="I43" t="n">
         <v>19.33726682947249</v>
       </c>
       <c r="J43" t="n">
-        <v>45.46128299057059</v>
+        <v>45.4612829905706</v>
       </c>
       <c r="K43" t="n">
-        <v>74.7068531078169</v>
+        <v>74.70685310781691</v>
       </c>
       <c r="L43" t="n">
-        <v>95.59905130870408</v>
+        <v>95.59905130870409</v>
       </c>
       <c r="M43" t="n">
         <v>100.7957956289583</v>
       </c>
       <c r="N43" t="n">
-        <v>98.3990968985824</v>
+        <v>98.39909689858241</v>
       </c>
       <c r="O43" t="n">
-        <v>90.8874923411845</v>
+        <v>90.88749234118451</v>
       </c>
       <c r="P43" t="n">
         <v>77.76995099737057</v>
@@ -34313,16 +34313,16 @@
         <v>53.84388294022705</v>
       </c>
       <c r="R43" t="n">
-        <v>28.91237053765746</v>
+        <v>28.91237053765747</v>
       </c>
       <c r="S43" t="n">
         <v>11.20602796617253</v>
       </c>
       <c r="T43" t="n">
-        <v>2.747435129943188</v>
+        <v>2.747435129943189</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03507363995672159</v>
+        <v>0.0350736399567216</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.433495502418769</v>
+        <v>1.43349550241877</v>
       </c>
       <c r="H44" t="n">
         <v>14.68078581414623</v>
       </c>
       <c r="I44" t="n">
-        <v>55.26483535699967</v>
+        <v>55.26483535699968</v>
       </c>
       <c r="J44" t="n">
         <v>121.6661388984152</v>
@@ -34377,13 +34377,13 @@
         <v>226.2163414979502</v>
       </c>
       <c r="M44" t="n">
-        <v>251.7092671390899</v>
+        <v>251.70926713909</v>
       </c>
       <c r="N44" t="n">
         <v>255.7821862353373</v>
       </c>
       <c r="O44" t="n">
-        <v>241.5278653331606</v>
+        <v>241.5278653331607</v>
       </c>
       <c r="P44" t="n">
         <v>206.1384451171973</v>
@@ -34392,16 +34392,16 @@
         <v>154.801387436825</v>
       </c>
       <c r="R44" t="n">
-        <v>90.04681185381311</v>
+        <v>90.04681185381313</v>
       </c>
       <c r="S44" t="n">
         <v>32.66577876136775</v>
       </c>
       <c r="T44" t="n">
-        <v>6.275126561838167</v>
+        <v>6.275126561838168</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1146796401935015</v>
+        <v>0.1146796401935016</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7669877115064205</v>
+        <v>0.7669877115064206</v>
       </c>
       <c r="H45" t="n">
-        <v>7.407486582180431</v>
+        <v>7.407486582180432</v>
       </c>
       <c r="I45" t="n">
         <v>26.40725234791843</v>
       </c>
       <c r="J45" t="n">
-        <v>72.46351883140267</v>
+        <v>72.46351883140268</v>
       </c>
       <c r="K45" t="n">
-        <v>123.8516955023328</v>
+        <v>123.8516955023329</v>
       </c>
       <c r="L45" t="n">
         <v>166.533888851427</v>
@@ -34468,19 +34468,19 @@
         <v>146.4610130858182</v>
       </c>
       <c r="Q45" t="n">
-        <v>97.90530857755643</v>
+        <v>97.90530857755644</v>
       </c>
       <c r="R45" t="n">
-        <v>47.62051773721444</v>
+        <v>47.62051773721446</v>
       </c>
       <c r="S45" t="n">
         <v>14.24646034311267</v>
       </c>
       <c r="T45" t="n">
-        <v>3.091498714361404</v>
+        <v>3.091498714361405</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05045971786226453</v>
+        <v>0.05045971786226454</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,31 +34517,31 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6430167325398952</v>
+        <v>0.6430167325398953</v>
       </c>
       <c r="H46" t="n">
-        <v>5.717003312945618</v>
+        <v>5.717003312945619</v>
       </c>
       <c r="I46" t="n">
         <v>19.33726682947249</v>
       </c>
       <c r="J46" t="n">
-        <v>45.46128299057059</v>
+        <v>45.4612829905706</v>
       </c>
       <c r="K46" t="n">
-        <v>74.7068531078169</v>
+        <v>74.70685310781691</v>
       </c>
       <c r="L46" t="n">
-        <v>95.59905130870408</v>
+        <v>95.59905130870409</v>
       </c>
       <c r="M46" t="n">
         <v>100.7957956289583</v>
       </c>
       <c r="N46" t="n">
-        <v>98.3990968985824</v>
+        <v>98.39909689858241</v>
       </c>
       <c r="O46" t="n">
-        <v>90.8874923411845</v>
+        <v>90.88749234118451</v>
       </c>
       <c r="P46" t="n">
         <v>77.76995099737057</v>
@@ -34550,16 +34550,16 @@
         <v>53.84388294022705</v>
       </c>
       <c r="R46" t="n">
-        <v>28.91237053765746</v>
+        <v>28.91237053765747</v>
       </c>
       <c r="S46" t="n">
         <v>11.20602796617253</v>
       </c>
       <c r="T46" t="n">
-        <v>2.747435129943188</v>
+        <v>2.747435129943189</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03507363995672159</v>
+        <v>0.0350736399567216</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>121.0068617638527</v>
+        <v>40.2326786753972</v>
       </c>
       <c r="K11" t="n">
         <v>304.869627820957</v>
@@ -35418,16 +35418,16 @@
         <v>430.711750034681</v>
       </c>
       <c r="M11" t="n">
-        <v>413.84158148659</v>
+        <v>494.6157645750449</v>
       </c>
       <c r="N11" t="n">
-        <v>486.9452506171246</v>
+        <v>486.9452506171247</v>
       </c>
       <c r="O11" t="n">
-        <v>413.2142977102712</v>
+        <v>413.2142977102713</v>
       </c>
       <c r="P11" t="n">
-        <v>315.3569307541513</v>
+        <v>315.3569307541514</v>
       </c>
       <c r="Q11" t="n">
         <v>158.8609300955376</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>79.9315095854278</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.5001389954146</v>
+        <v>264.5001389954147</v>
       </c>
       <c r="L12" t="n">
-        <v>417.1173276816471</v>
+        <v>417.1173276816472</v>
       </c>
       <c r="M12" t="n">
-        <v>333.3075686462369</v>
+        <v>540.0897766195668</v>
       </c>
       <c r="N12" t="n">
-        <v>569.9386206703405</v>
+        <v>569.9386206703406</v>
       </c>
       <c r="O12" t="n">
-        <v>453.0713613727495</v>
+        <v>453.0713613727496</v>
       </c>
       <c r="P12" t="n">
         <v>347.0372452423808</v>
       </c>
       <c r="Q12" t="n">
-        <v>179.9034580889685</v>
+        <v>53.05275970106575</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>59.93244338998353</v>
+        <v>59.93244338998356</v>
       </c>
       <c r="L13" t="n">
-        <v>133.0601815377133</v>
+        <v>133.0601815377134</v>
       </c>
       <c r="M13" t="n">
-        <v>150.9932036258668</v>
+        <v>150.9932036258669</v>
       </c>
       <c r="N13" t="n">
         <v>152.5961165632203</v>
       </c>
       <c r="O13" t="n">
-        <v>125.4557003711555</v>
+        <v>125.4557003711556</v>
       </c>
       <c r="P13" t="n">
-        <v>83.8919728960544</v>
+        <v>83.89197289605441</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>121.0068617638527</v>
+        <v>121.0068617638528</v>
       </c>
       <c r="K14" t="n">
         <v>304.869627820957</v>
       </c>
       <c r="L14" t="n">
-        <v>349.9375669462262</v>
+        <v>430.711750034681</v>
       </c>
       <c r="M14" t="n">
         <v>494.6157645750449</v>
@@ -35661,7 +35661,7 @@
         <v>486.9452506171247</v>
       </c>
       <c r="O14" t="n">
-        <v>413.2142977102712</v>
+        <v>332.4401146218156</v>
       </c>
       <c r="P14" t="n">
         <v>315.3569307541514</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>79.93150958542782</v>
+        <v>79.93150958542783</v>
       </c>
       <c r="K15" t="n">
-        <v>264.5001389954146</v>
+        <v>264.5001389954147</v>
       </c>
       <c r="L15" t="n">
         <v>417.1173276816472</v>
       </c>
       <c r="M15" t="n">
-        <v>540.0897766195667</v>
+        <v>540.0897766195668</v>
       </c>
       <c r="N15" t="n">
-        <v>363.1564126970107</v>
+        <v>363.15641269701</v>
       </c>
       <c r="O15" t="n">
-        <v>453.0713613727495</v>
+        <v>453.0713613727496</v>
       </c>
       <c r="P15" t="n">
         <v>347.0372452423808</v>
@@ -35807,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>59.93244338998355</v>
+        <v>59.93244338998356</v>
       </c>
       <c r="L16" t="n">
         <v>133.0601815377134</v>
       </c>
       <c r="M16" t="n">
-        <v>150.9932036258668</v>
+        <v>150.9932036258669</v>
       </c>
       <c r="N16" t="n">
         <v>152.5961165632203</v>
@@ -35883,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>121.0068617638527</v>
+        <v>121.0068617638528</v>
       </c>
       <c r="K17" t="n">
         <v>304.869627820957</v>
       </c>
       <c r="L17" t="n">
-        <v>349.9375669462258</v>
+        <v>430.711750034681</v>
       </c>
       <c r="M17" t="n">
-        <v>494.6157645750449</v>
+        <v>413.8415814865892</v>
       </c>
       <c r="N17" t="n">
         <v>486.9452506171247</v>
       </c>
       <c r="O17" t="n">
-        <v>413.2142977102712</v>
+        <v>413.2142977102713</v>
       </c>
       <c r="P17" t="n">
         <v>315.3569307541514</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>79.93150958542782</v>
+        <v>79.93150958542783</v>
       </c>
       <c r="K18" t="n">
-        <v>264.5001389954146</v>
+        <v>264.5001389954147</v>
       </c>
       <c r="L18" t="n">
         <v>417.1173276816472</v>
       </c>
       <c r="M18" t="n">
-        <v>540.0897766195667</v>
+        <v>540.0897766195668</v>
       </c>
       <c r="N18" t="n">
-        <v>363.1564126970102</v>
+        <v>363.15641269701</v>
       </c>
       <c r="O18" t="n">
-        <v>453.0713613727495</v>
+        <v>453.0713613727496</v>
       </c>
       <c r="P18" t="n">
         <v>347.0372452423808</v>
@@ -36044,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>59.93244338998355</v>
+        <v>59.93244338998356</v>
       </c>
       <c r="L19" t="n">
         <v>133.0601815377134</v>
       </c>
       <c r="M19" t="n">
-        <v>150.9932036258668</v>
+        <v>150.9932036258669</v>
       </c>
       <c r="N19" t="n">
         <v>152.5961165632203</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>121.0068617638527</v>
+        <v>40.2326786753972</v>
       </c>
       <c r="K20" t="n">
         <v>304.869627820957</v>
@@ -36132,10 +36132,10 @@
         <v>494.6157645750449</v>
       </c>
       <c r="N20" t="n">
-        <v>406.1710675286694</v>
+        <v>486.9452506171247</v>
       </c>
       <c r="O20" t="n">
-        <v>413.2142977102712</v>
+        <v>413.2142977102713</v>
       </c>
       <c r="P20" t="n">
         <v>315.3569307541514</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>79.93150958542782</v>
+        <v>79.93150958542783</v>
       </c>
       <c r="K21" t="n">
-        <v>264.5001389954146</v>
+        <v>264.5001389954147</v>
       </c>
       <c r="L21" t="n">
         <v>417.1173276816472</v>
       </c>
       <c r="M21" t="n">
-        <v>540.0897766195667</v>
+        <v>333.3075686462363</v>
       </c>
       <c r="N21" t="n">
         <v>569.9386206703406</v>
       </c>
       <c r="O21" t="n">
-        <v>246.289153399419</v>
+        <v>453.0713613727496</v>
       </c>
       <c r="P21" t="n">
         <v>347.0372452423808</v>
@@ -36281,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>59.93244338998355</v>
+        <v>59.93244338998356</v>
       </c>
       <c r="L22" t="n">
         <v>133.0601815377134</v>
       </c>
       <c r="M22" t="n">
-        <v>150.9932036258668</v>
+        <v>150.9932036258669</v>
       </c>
       <c r="N22" t="n">
         <v>152.5961165632203</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>121.0068617638527</v>
+        <v>121.0068617638528</v>
       </c>
       <c r="K23" t="n">
         <v>304.869627820957</v>
@@ -36372,7 +36372,7 @@
         <v>486.9452506171247</v>
       </c>
       <c r="O23" t="n">
-        <v>413.2142977102711</v>
+        <v>413.2142977102713</v>
       </c>
       <c r="P23" t="n">
         <v>315.3569307541514</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>79.93150958542782</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.5001389954146</v>
+        <v>137.6494406075119</v>
       </c>
       <c r="L24" t="n">
         <v>417.1173276816472</v>
       </c>
       <c r="M24" t="n">
-        <v>540.0897766195667</v>
+        <v>540.0897766195668</v>
       </c>
       <c r="N24" t="n">
         <v>569.9386206703406</v>
       </c>
       <c r="O24" t="n">
-        <v>453.0713613727495</v>
+        <v>453.0713613727496</v>
       </c>
       <c r="P24" t="n">
-        <v>140.2550372690505</v>
+        <v>347.0372452423808</v>
       </c>
       <c r="Q24" t="n">
         <v>179.9034580889685</v>
@@ -36518,13 +36518,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>59.93244338998355</v>
+        <v>59.93244338998356</v>
       </c>
       <c r="L25" t="n">
         <v>133.0601815377134</v>
       </c>
       <c r="M25" t="n">
-        <v>150.9932036258668</v>
+        <v>150.9932036258669</v>
       </c>
       <c r="N25" t="n">
         <v>152.5961165632203</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>121.0068617638527</v>
+        <v>121.0068617638528</v>
       </c>
       <c r="K26" t="n">
         <v>304.869627820957</v>
@@ -36609,7 +36609,7 @@
         <v>486.9452506171247</v>
       </c>
       <c r="O26" t="n">
-        <v>413.2142977102711</v>
+        <v>413.2142977102713</v>
       </c>
       <c r="P26" t="n">
         <v>315.3569307541514</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>53.05275970106589</v>
       </c>
       <c r="K27" t="n">
-        <v>264.5001389954146</v>
+        <v>264.5001389954147</v>
       </c>
       <c r="L27" t="n">
-        <v>290.2666292937446</v>
+        <v>417.1173276816472</v>
       </c>
       <c r="M27" t="n">
-        <v>540.0897766195667</v>
+        <v>540.0897766195668</v>
       </c>
       <c r="N27" t="n">
         <v>569.9386206703406</v>
       </c>
       <c r="O27" t="n">
-        <v>453.0713613727495</v>
+        <v>453.0713613727496</v>
       </c>
       <c r="P27" t="n">
         <v>347.0372452423808</v>
       </c>
       <c r="Q27" t="n">
-        <v>179.9034580889685</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,13 +36755,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>59.93244338998355</v>
+        <v>59.93244338998356</v>
       </c>
       <c r="L28" t="n">
         <v>133.0601815377134</v>
       </c>
       <c r="M28" t="n">
-        <v>150.9932036258668</v>
+        <v>150.9932036258669</v>
       </c>
       <c r="N28" t="n">
         <v>152.5961165632203</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>121.0068617638527</v>
+        <v>121.0068617638528</v>
       </c>
       <c r="K29" t="n">
         <v>304.869627820957</v>
@@ -36846,7 +36846,7 @@
         <v>486.9452506171247</v>
       </c>
       <c r="O29" t="n">
-        <v>413.2142977102712</v>
+        <v>413.2142977102713</v>
       </c>
       <c r="P29" t="n">
         <v>315.3569307541514</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>79.93150958542783</v>
       </c>
       <c r="K30" t="n">
-        <v>264.5001389954146</v>
+        <v>237.6213891110527</v>
       </c>
       <c r="L30" t="n">
-        <v>290.2666292937446</v>
+        <v>417.1173276816472</v>
       </c>
       <c r="M30" t="n">
-        <v>540.0897766195667</v>
+        <v>540.0897766195668</v>
       </c>
       <c r="N30" t="n">
         <v>569.9386206703406</v>
       </c>
       <c r="O30" t="n">
-        <v>453.0713613727495</v>
+        <v>453.0713613727496</v>
       </c>
       <c r="P30" t="n">
         <v>347.0372452423808</v>
       </c>
       <c r="Q30" t="n">
-        <v>179.9034580889685</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,13 +36992,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>59.93244338998355</v>
+        <v>59.93244338998356</v>
       </c>
       <c r="L31" t="n">
         <v>133.0601815377134</v>
       </c>
       <c r="M31" t="n">
-        <v>150.9932036258668</v>
+        <v>150.9932036258669</v>
       </c>
       <c r="N31" t="n">
         <v>152.5961165632203</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>121.0068617638527</v>
+        <v>121.0068617638528</v>
       </c>
       <c r="K32" t="n">
         <v>304.869627820957</v>
@@ -37083,7 +37083,7 @@
         <v>486.9452506171247</v>
       </c>
       <c r="O32" t="n">
-        <v>413.2142977102712</v>
+        <v>413.2142977102713</v>
       </c>
       <c r="P32" t="n">
         <v>315.3569307541514</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.5001389954146</v>
+        <v>264.5001389954147</v>
       </c>
       <c r="L33" t="n">
-        <v>290.2666292937446</v>
+        <v>417.1173276816472</v>
       </c>
       <c r="M33" t="n">
-        <v>540.0897766195667</v>
+        <v>540.0897766195668</v>
       </c>
       <c r="N33" t="n">
         <v>569.9386206703406</v>
       </c>
       <c r="O33" t="n">
-        <v>453.0713613727495</v>
+        <v>453.0713613727496</v>
       </c>
       <c r="P33" t="n">
         <v>347.0372452423808</v>
       </c>
       <c r="Q33" t="n">
-        <v>179.9034580889685</v>
+        <v>53.05275970106529</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,13 +37229,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>59.93244338998355</v>
+        <v>59.93244338998356</v>
       </c>
       <c r="L34" t="n">
         <v>133.0601815377134</v>
       </c>
       <c r="M34" t="n">
-        <v>150.9932036258668</v>
+        <v>150.9932036258669</v>
       </c>
       <c r="N34" t="n">
         <v>152.5961165632203</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>40.23267867539754</v>
+        <v>40.2326786753972</v>
       </c>
       <c r="K35" t="n">
         <v>304.869627820957</v>
@@ -37320,7 +37320,7 @@
         <v>486.9452506171247</v>
       </c>
       <c r="O35" t="n">
-        <v>413.2142977102712</v>
+        <v>413.2142977102713</v>
       </c>
       <c r="P35" t="n">
         <v>315.3569307541514</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>79.93150958542783</v>
       </c>
       <c r="K36" t="n">
-        <v>264.5001389954146</v>
+        <v>264.5001389954147</v>
       </c>
       <c r="L36" t="n">
         <v>417.1173276816472</v>
       </c>
       <c r="M36" t="n">
-        <v>540.0897766195667</v>
+        <v>540.0897766195668</v>
       </c>
       <c r="N36" t="n">
-        <v>569.9386206703406</v>
+        <v>363.15641269701</v>
       </c>
       <c r="O36" t="n">
-        <v>453.0713613727495</v>
+        <v>453.0713613727496</v>
       </c>
       <c r="P36" t="n">
         <v>347.0372452423808</v>
       </c>
       <c r="Q36" t="n">
-        <v>53.05275970106621</v>
+        <v>179.9034580889685</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,13 +37466,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>59.93244338998355</v>
+        <v>59.93244338998356</v>
       </c>
       <c r="L37" t="n">
         <v>133.0601815377134</v>
       </c>
       <c r="M37" t="n">
-        <v>150.9932036258668</v>
+        <v>150.9932036258669</v>
       </c>
       <c r="N37" t="n">
         <v>152.5961165632203</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>121.0068617638527</v>
+        <v>121.0068617638528</v>
       </c>
       <c r="K38" t="n">
         <v>304.869627820957</v>
@@ -37551,16 +37551,16 @@
         <v>430.711750034681</v>
       </c>
       <c r="M38" t="n">
-        <v>494.6157645750449</v>
+        <v>413.8415814865892</v>
       </c>
       <c r="N38" t="n">
         <v>486.9452506171247</v>
       </c>
       <c r="O38" t="n">
-        <v>413.2142977102712</v>
+        <v>413.2142977102713</v>
       </c>
       <c r="P38" t="n">
-        <v>234.5827476656962</v>
+        <v>315.3569307541514</v>
       </c>
       <c r="Q38" t="n">
         <v>158.8609300955376</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>79.93150958542782</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.5001389954146</v>
+        <v>264.5001389954147</v>
       </c>
       <c r="L39" t="n">
         <v>417.1173276816472</v>
       </c>
       <c r="M39" t="n">
-        <v>540.0897766195667</v>
+        <v>540.0897766195668</v>
       </c>
       <c r="N39" t="n">
         <v>569.9386206703406</v>
       </c>
       <c r="O39" t="n">
-        <v>246.289153399419</v>
+        <v>453.0713613727496</v>
       </c>
       <c r="P39" t="n">
         <v>347.0372452423808</v>
       </c>
       <c r="Q39" t="n">
-        <v>179.9034580889685</v>
+        <v>53.05275970106575</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,13 +37703,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>59.93244338998355</v>
+        <v>59.93244338998356</v>
       </c>
       <c r="L40" t="n">
         <v>133.0601815377134</v>
       </c>
       <c r="M40" t="n">
-        <v>150.9932036258668</v>
+        <v>150.9932036258669</v>
       </c>
       <c r="N40" t="n">
         <v>152.5961165632203</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>121.0068617638527</v>
+        <v>121.0068617638528</v>
       </c>
       <c r="K41" t="n">
         <v>304.869627820957</v>
@@ -37794,10 +37794,10 @@
         <v>486.9452506171247</v>
       </c>
       <c r="O41" t="n">
-        <v>413.2142977102712</v>
+        <v>332.4401146218156</v>
       </c>
       <c r="P41" t="n">
-        <v>234.5827476656953</v>
+        <v>315.3569307541514</v>
       </c>
       <c r="Q41" t="n">
         <v>158.8609300955376</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>79.93150958542782</v>
+        <v>79.93150958542783</v>
       </c>
       <c r="K42" t="n">
-        <v>57.71793102208344</v>
+        <v>264.5001389954147</v>
       </c>
       <c r="L42" t="n">
         <v>417.1173276816472</v>
       </c>
       <c r="M42" t="n">
-        <v>540.0897766195667</v>
+        <v>540.0897766195668</v>
       </c>
       <c r="N42" t="n">
-        <v>569.9386206703406</v>
+        <v>363.15641269701</v>
       </c>
       <c r="O42" t="n">
-        <v>453.0713613727495</v>
+        <v>453.0713613727496</v>
       </c>
       <c r="P42" t="n">
         <v>347.0372452423808</v>
@@ -37940,13 +37940,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>59.93244338998355</v>
+        <v>59.93244338998356</v>
       </c>
       <c r="L43" t="n">
         <v>133.0601815377134</v>
       </c>
       <c r="M43" t="n">
-        <v>150.9932036258668</v>
+        <v>150.9932036258669</v>
       </c>
       <c r="N43" t="n">
         <v>152.5961165632203</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>40.23267867539664</v>
+        <v>121.0068617638528</v>
       </c>
       <c r="K44" t="n">
         <v>304.869627820957</v>
       </c>
       <c r="L44" t="n">
-        <v>430.711750034681</v>
+        <v>349.9375669462254</v>
       </c>
       <c r="M44" t="n">
         <v>494.6157645750449</v>
@@ -38031,7 +38031,7 @@
         <v>486.9452506171247</v>
       </c>
       <c r="O44" t="n">
-        <v>413.2142977102712</v>
+        <v>413.2142977102713</v>
       </c>
       <c r="P44" t="n">
         <v>315.3569307541514</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>79.93150958542782</v>
+        <v>79.93150958542783</v>
       </c>
       <c r="K45" t="n">
-        <v>264.5001389954146</v>
+        <v>264.5001389954147</v>
       </c>
       <c r="L45" t="n">
         <v>417.1173276816472</v>
       </c>
       <c r="M45" t="n">
-        <v>540.0897766195667</v>
+        <v>540.0897766195668</v>
       </c>
       <c r="N45" t="n">
-        <v>543.059870785978</v>
+        <v>363.15641269701</v>
       </c>
       <c r="O45" t="n">
-        <v>453.0713613727495</v>
+        <v>453.0713613727496</v>
       </c>
       <c r="P45" t="n">
         <v>347.0372452423808</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>179.9034580889685</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,13 +38177,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>59.93244338998355</v>
+        <v>59.93244338998356</v>
       </c>
       <c r="L46" t="n">
         <v>133.0601815377134</v>
       </c>
       <c r="M46" t="n">
-        <v>150.9932036258668</v>
+        <v>150.9932036258669</v>
       </c>
       <c r="N46" t="n">
         <v>152.5961165632203</v>
